--- a/data/trans_orig/P6710-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5942F07D-8299-416D-952B-96219AE7F2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD421CB6-AC16-460A-89A0-5F479E4D601F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1A92E8D-C560-4731-A26B-812D4E344E7A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E60632D6-5BB2-4C18-B01C-F19D439A240D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="722">
   <si>
     <t>Población según si puede decidir cuándo hace un descanso en 2012 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -93,2125 +93,2116 @@
     <t>7,89%</t>
   </si>
   <si>
-    <t>4,38%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
   </si>
   <si>
     <t>12,84%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede decidir cuándo hace un descanso en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
   </si>
   <si>
     <t>15,41%</t>
   </si>
   <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede decidir cuándo hace un descanso en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
     <t>25,56%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>23,08%</t>
+    <t>23,19%</t>
   </si>
   <si>
     <t>18,47%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
   </si>
   <si>
     <t>19,88%</t>
   </si>
   <si>
-    <t>21,5%</t>
+    <t>21,58%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
 </sst>
 </file>
@@ -2623,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B67A15D7-4477-4E18-A441-D9A98939AE51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70520F7-8ADB-4CA8-884F-50FDAED62915}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3139,10 +3130,10 @@
         <v>38</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -3151,13 +3142,13 @@
         <v>46715</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,10 +3163,10 @@
         <v>13831</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>45</v>
@@ -3770,10 +3761,10 @@
         <v>96</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +3779,13 @@
         <v>32162</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -3803,13 +3794,13 @@
         <v>29302</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -3818,13 +3809,13 @@
         <v>61464</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +3830,13 @@
         <v>117212</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>70</v>
@@ -3854,13 +3845,13 @@
         <v>77946</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>184</v>
@@ -3869,13 +3860,13 @@
         <v>195159</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3931,7 +3922,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3943,13 +3934,13 @@
         <v>11980</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -3958,10 +3949,10 @@
         <v>9666</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>157</v>
@@ -4063,10 +4054,10 @@
         <v>173</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -4075,13 +4066,13 @@
         <v>28648</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4096,13 +4087,13 @@
         <v>13992</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -4111,13 +4102,13 @@
         <v>7142</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -4126,13 +4117,13 @@
         <v>21134</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4138,13 @@
         <v>29648</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -4162,13 +4153,13 @@
         <v>13566</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M32" s="7">
         <v>40</v>
@@ -4177,13 +4168,13 @@
         <v>43213</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,7 +4230,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4251,13 +4242,13 @@
         <v>16962</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -4266,13 +4257,13 @@
         <v>6054</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M34" s="7">
         <v>21</v>
@@ -4281,13 +4272,13 @@
         <v>23015</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4305,10 +4296,10 @@
         <v>46</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4317,13 +4308,13 @@
         <v>947</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -4332,13 +4323,13 @@
         <v>11027</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4353,13 +4344,13 @@
         <v>16374</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -4368,13 +4359,13 @@
         <v>8479</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -4383,13 +4374,13 @@
         <v>24852</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4395,13 @@
         <v>24282</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -4419,13 +4410,13 @@
         <v>10864</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -4434,13 +4425,13 @@
         <v>35146</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4446,13 @@
         <v>50569</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H38" s="7">
         <v>26</v>
@@ -4470,13 +4461,13 @@
         <v>28948</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M38" s="7">
         <v>75</v>
@@ -4485,13 +4476,13 @@
         <v>79517</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,7 +4538,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4559,13 +4550,13 @@
         <v>28708</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H40" s="7">
         <v>30</v>
@@ -4574,13 +4565,13 @@
         <v>32133</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M40" s="7">
         <v>58</v>
@@ -4589,13 +4580,13 @@
         <v>60841</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4601,13 @@
         <v>23821</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H41" s="7">
         <v>15</v>
@@ -4625,13 +4616,13 @@
         <v>15549</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>119</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>65</v>
+        <v>255</v>
       </c>
       <c r="M41" s="7">
         <v>37</v>
@@ -4640,13 +4631,13 @@
         <v>39370</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4652,13 @@
         <v>63247</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H42" s="7">
         <v>32</v>
@@ -4676,13 +4667,13 @@
         <v>35711</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M42" s="7">
         <v>89</v>
@@ -4691,13 +4682,13 @@
         <v>98958</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4703,13 @@
         <v>62893</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -4727,13 +4718,13 @@
         <v>31806</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M43" s="7">
         <v>94</v>
@@ -4742,13 +4733,13 @@
         <v>94699</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4763,13 +4754,13 @@
         <v>90108</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H44" s="7">
         <v>60</v>
@@ -4778,13 +4769,13 @@
         <v>64060</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M44" s="7">
         <v>141</v>
@@ -4793,13 +4784,13 @@
         <v>154168</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,7 +4846,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4867,13 +4858,13 @@
         <v>16730</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>284</v>
+        <v>121</v>
       </c>
       <c r="H46" s="7">
         <v>19</v>
@@ -4882,13 +4873,13 @@
         <v>21935</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M46" s="7">
         <v>34</v>
@@ -4897,13 +4888,13 @@
         <v>38665</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4918,13 +4909,13 @@
         <v>16615</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H47" s="7">
         <v>19</v>
@@ -4933,13 +4924,13 @@
         <v>21475</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>196</v>
+        <v>298</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="M47" s="7">
         <v>34</v>
@@ -4948,13 +4939,13 @@
         <v>38090</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>298</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4960,13 @@
         <v>74159</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H48" s="7">
         <v>48</v>
@@ -4984,13 +4975,13 @@
         <v>53281</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M48" s="7">
         <v>116</v>
@@ -5002,10 +4993,10 @@
         <v>84</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>305</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5011,13 @@
         <v>123786</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H49" s="7">
         <v>78</v>
@@ -5035,13 +5026,13 @@
         <v>84860</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M49" s="7">
         <v>196</v>
@@ -5050,13 +5041,13 @@
         <v>208646</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5062,13 @@
         <v>128822</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H50" s="7">
         <v>71</v>
@@ -5086,13 +5077,13 @@
         <v>78024</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M50" s="7">
         <v>190</v>
@@ -5101,13 +5092,13 @@
         <v>206846</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5166,13 @@
         <v>138589</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="H52" s="7">
         <v>114</v>
@@ -5190,13 +5181,13 @@
         <v>122811</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M52" s="7">
         <v>243</v>
@@ -5205,13 +5196,13 @@
         <v>261400</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5217,13 @@
         <v>112006</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H53" s="7">
         <v>83</v>
@@ -5241,13 +5232,13 @@
         <v>91903</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>75</v>
+        <v>339</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>335</v>
+        <v>25</v>
       </c>
       <c r="M53" s="7">
         <v>185</v>
@@ -5256,13 +5247,13 @@
         <v>203909</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5268,13 @@
         <v>293588</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H54" s="7">
         <v>164</v>
@@ -5292,13 +5283,13 @@
         <v>177225</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="M54" s="7">
         <v>438</v>
@@ -5310,10 +5301,10 @@
         <v>96</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>90</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5319,13 @@
         <v>302099</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H55" s="7">
         <v>177</v>
@@ -5343,13 +5334,13 @@
         <v>187902</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M55" s="7">
         <v>469</v>
@@ -5358,13 +5349,13 @@
         <v>490001</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,13 +5370,13 @@
         <v>563409</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="H56" s="7">
         <v>330</v>
@@ -5394,13 +5385,13 @@
         <v>360716</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>357</v>
+        <v>149</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M56" s="7">
         <v>858</v>
@@ -5409,13 +5400,13 @@
         <v>924125</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,7 +5462,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5495,7 +5486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29524E19-E7F0-4A5D-8597-F1D3A5568C65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693E93E8-31C5-4A7D-BFAB-A950D966D8D8}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5512,7 +5503,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5619,13 +5610,13 @@
         <v>51309</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -5634,13 +5625,13 @@
         <v>39655</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -5649,13 +5640,13 @@
         <v>90965</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5661,13 @@
         <v>11042</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5685,13 +5676,13 @@
         <v>7134</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5700,13 +5691,13 @@
         <v>18176</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5712,13 @@
         <v>9649</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5736,13 +5727,13 @@
         <v>17090</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -5751,13 +5742,13 @@
         <v>26739</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,13 +5763,13 @@
         <v>21160</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>393</v>
+        <v>268</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -5787,13 +5778,13 @@
         <v>7863</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -5802,13 +5793,13 @@
         <v>29023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5823,13 +5814,13 @@
         <v>43006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5838,13 +5829,13 @@
         <v>29233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -5853,13 +5844,13 @@
         <v>72239</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5918,13 @@
         <v>22054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>412</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>409</v>
+        <v>298</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -5942,13 +5933,13 @@
         <v>19250</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>412</v>
+        <v>242</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>415</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5957,13 +5948,13 @@
         <v>41303</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5969,13 @@
         <v>23612</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5993,13 +5984,13 @@
         <v>14494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -6008,13 +5999,13 @@
         <v>38107</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>334</v>
+        <v>426</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6020,13 @@
         <v>48071</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -6044,13 +6035,13 @@
         <v>20254</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -6059,13 +6050,13 @@
         <v>68325</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>431</v>
+        <v>206</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6071,13 @@
         <v>21790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -6095,13 +6086,13 @@
         <v>9739</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -6110,13 +6101,13 @@
         <v>31529</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6122,13 @@
         <v>54770</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -6146,13 +6137,13 @@
         <v>49944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -6161,13 +6152,13 @@
         <v>104713</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6226,13 @@
         <v>20028</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>110</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -6250,13 +6241,13 @@
         <v>15222</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -6265,13 +6256,13 @@
         <v>35251</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6277,13 @@
         <v>28022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>464</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6301,13 +6292,13 @@
         <v>15302</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -6316,13 +6307,13 @@
         <v>43324</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6328,13 @@
         <v>37737</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>467</v>
+        <v>103</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>468</v>
+        <v>375</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -6352,13 +6343,13 @@
         <v>25548</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>469</v>
+        <v>225</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -6367,13 +6358,13 @@
         <v>63285</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>157</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>474</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6388,13 +6379,13 @@
         <v>26117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -6403,13 +6394,13 @@
         <v>17204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>480</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -6418,13 +6409,13 @@
         <v>43321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>482</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6439,13 +6430,13 @@
         <v>14480</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>482</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6454,13 +6445,13 @@
         <v>11056</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -6469,13 +6460,13 @@
         <v>25536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,13 +6534,13 @@
         <v>20223</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -6558,13 +6549,13 @@
         <v>16417</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -6573,13 +6564,13 @@
         <v>36639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>494</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>495</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6594,13 +6585,13 @@
         <v>11582</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>267</v>
+        <v>390</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -6609,13 +6600,13 @@
         <v>11835</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>499</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -6624,13 +6615,13 @@
         <v>23418</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,13 +6636,13 @@
         <v>11238</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -6660,13 +6651,13 @@
         <v>9856</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -6675,13 +6666,13 @@
         <v>21094</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>512</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,13 +6687,13 @@
         <v>17093</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6711,13 +6702,13 @@
         <v>7646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -6726,13 +6717,13 @@
         <v>24739</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6747,13 +6738,13 @@
         <v>52045</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="H26" s="7">
         <v>34</v>
@@ -6762,13 +6753,13 @@
         <v>36105</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M26" s="7">
         <v>83</v>
@@ -6777,13 +6768,13 @@
         <v>88149</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>308</v>
+        <v>529</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6839,7 +6830,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6851,13 +6842,13 @@
         <v>3501</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>206</v>
+        <v>532</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -6866,13 +6857,13 @@
         <v>5252</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -6881,13 +6872,13 @@
         <v>8754</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6902,13 +6893,13 @@
         <v>11362</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -6917,13 +6908,13 @@
         <v>7985</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -6932,13 +6923,13 @@
         <v>19346</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>490</v>
+        <v>548</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6953,13 +6944,13 @@
         <v>29237</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -6968,13 +6959,13 @@
         <v>18384</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="M30" s="7">
         <v>48</v>
@@ -6983,13 +6974,13 @@
         <v>47622</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,13 +6995,13 @@
         <v>27616</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -7019,13 +7010,13 @@
         <v>15654</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="M31" s="7">
         <v>45</v>
@@ -7034,13 +7025,13 @@
         <v>43270</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,13 +7046,13 @@
         <v>9213</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>563</v>
+        <v>299</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -7070,13 +7061,13 @@
         <v>8142</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="M32" s="7">
         <v>17</v>
@@ -7085,13 +7076,13 @@
         <v>17356</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>564</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,7 +7138,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7159,13 +7150,13 @@
         <v>2872</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>570</v>
+        <v>382</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>572</v>
+        <v>387</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7174,13 +7165,13 @@
         <v>3785</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -7189,13 +7180,13 @@
         <v>6658</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,13 +7201,13 @@
         <v>21328</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="H35" s="7">
         <v>17</v>
@@ -7225,10 +7216,10 @@
         <v>16564</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>583</v>
+        <v>263</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>584</v>
@@ -7243,10 +7234,10 @@
         <v>585</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>586</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>260</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,13 +7252,13 @@
         <v>35668</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -7276,13 +7267,13 @@
         <v>27984</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>590</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>592</v>
       </c>
       <c r="M36" s="7">
         <v>64</v>
@@ -7291,13 +7282,13 @@
         <v>63653</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>594</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7312,13 +7303,13 @@
         <v>28240</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>598</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -7327,13 +7318,13 @@
         <v>19291</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -7342,13 +7333,13 @@
         <v>47532</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7363,10 +7354,10 @@
         <v>19393</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>605</v>
@@ -7381,10 +7372,10 @@
         <v>606</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>607</v>
+        <v>44</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>608</v>
+        <v>262</v>
       </c>
       <c r="M38" s="7">
         <v>26</v>
@@ -7393,13 +7384,13 @@
         <v>27337</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,7 +7446,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7470,10 +7461,10 @@
         <v>610</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>530</v>
+        <v>51</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>611</v>
+        <v>424</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -7482,7 +7473,7 @@
         <v>42491</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>376</v>
+        <v>611</v>
       </c>
       <c r="K40" s="7" t="s">
         <v>612</v>
@@ -7521,10 +7512,10 @@
         <v>617</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>619</v>
       </c>
       <c r="H41" s="7">
         <v>76</v>
@@ -7533,13 +7524,13 @@
         <v>77729</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>621</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>622</v>
       </c>
       <c r="M41" s="7">
         <v>149</v>
@@ -7548,13 +7539,13 @@
         <v>158090</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7569,13 +7560,13 @@
         <v>93613</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="H42" s="7">
         <v>79</v>
@@ -7584,13 +7575,13 @@
         <v>82427</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>630</v>
       </c>
       <c r="M42" s="7">
         <v>157</v>
@@ -7599,13 +7590,13 @@
         <v>176040</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7611,13 @@
         <v>56627</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>302</v>
+        <v>632</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>635</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -7635,13 +7626,13 @@
         <v>31638</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="K43" s="7" t="s">
-        <v>637</v>
-      </c>
       <c r="L43" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M43" s="7">
         <v>79</v>
@@ -7650,13 +7641,13 @@
         <v>88266</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7674,10 +7665,10 @@
         <v>640</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>74</v>
+        <v>641</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="H44" s="7">
         <v>47</v>
@@ -7686,13 +7677,13 @@
         <v>50579</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="M44" s="7">
         <v>114</v>
@@ -7701,13 +7692,13 @@
         <v>126364</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>133</v>
+        <v>647</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,7 +7754,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7775,13 +7766,13 @@
         <v>7924</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H46" s="7">
         <v>14</v>
@@ -7790,13 +7781,13 @@
         <v>13899</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="M46" s="7">
         <v>22</v>
@@ -7805,13 +7796,13 @@
         <v>21823</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7817,13 @@
         <v>37583</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="H47" s="7">
         <v>37</v>
@@ -7841,13 +7832,13 @@
         <v>37778</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="M47" s="7">
         <v>73</v>
@@ -7856,13 +7847,13 @@
         <v>75362</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>662</v>
+        <v>72</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>663</v>
+        <v>347</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,10 +7886,10 @@
         <v>667</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>220</v>
+        <v>668</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M48" s="7">
         <v>155</v>
@@ -7907,7 +7898,7 @@
         <v>161581</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>669</v>
+        <v>624</v>
       </c>
       <c r="P48" s="7" t="s">
         <v>670</v>
@@ -7928,13 +7919,13 @@
         <v>98714</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>478</v>
+        <v>672</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H49" s="7">
         <v>79</v>
@@ -7943,13 +7934,13 @@
         <v>82535</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="M49" s="7">
         <v>174</v>
@@ -7958,7 +7949,7 @@
         <v>181249</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>677</v>
+        <v>376</v>
       </c>
       <c r="P49" s="7" t="s">
         <v>678</v>
@@ -7997,10 +7988,10 @@
         <v>683</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>422</v>
+        <v>684</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="M50" s="7">
         <v>122</v>
@@ -8009,13 +8000,13 @@
         <v>129393</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>404</v>
+        <v>687</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>686</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,10 +8074,10 @@
         <v>181453</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>688</v>
+        <v>201</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>689</v>
@@ -8101,7 +8092,7 @@
         <v>690</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>691</v>
@@ -8116,10 +8107,10 @@
         <v>692</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>385</v>
+        <v>693</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,13 +8125,13 @@
         <v>224891</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>267</v>
+        <v>697</v>
       </c>
       <c r="H53" s="7">
         <v>187</v>
@@ -8149,13 +8140,13 @@
         <v>188822</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>220</v>
+        <v>700</v>
       </c>
       <c r="M53" s="7">
         <v>396</v>
@@ -8164,13 +8155,13 @@
         <v>413714</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>700</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8185,13 +8176,13 @@
         <v>363562</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>429</v>
+        <v>703</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="H54" s="7">
         <v>263</v>
@@ -8200,13 +8191,13 @@
         <v>264777</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>704</v>
+        <v>561</v>
       </c>
       <c r="M54" s="7">
         <v>604</v>
@@ -8215,13 +8206,13 @@
         <v>628339</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>705</v>
+        <v>392</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>707</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8236,13 +8227,13 @@
         <v>297358</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>709</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>710</v>
       </c>
       <c r="H55" s="7">
         <v>188</v>
@@ -8251,13 +8242,13 @@
         <v>191571</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>711</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>712</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>713</v>
       </c>
       <c r="M55" s="7">
         <v>464</v>
@@ -8266,13 +8257,13 @@
         <v>488929</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>714</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8287,13 +8278,13 @@
         <v>355058</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="G56" s="7" t="s">
         <v>717</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>718</v>
       </c>
       <c r="H56" s="7">
         <v>221</v>
@@ -8302,13 +8293,13 @@
         <v>236029</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>719</v>
+        <v>356</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>720</v>
+        <v>495</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="M56" s="7">
         <v>553</v>
@@ -8317,13 +8308,13 @@
         <v>591087</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8379,7 +8370,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6710-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD421CB6-AC16-460A-89A0-5F479E4D601F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB3567E7-4929-4B3A-8777-5F4B71CD0DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E60632D6-5BB2-4C18-B01C-F19D439A240D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8564D5A-75E0-4577-893B-00EBA351EEF2}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="712">
   <si>
     <t>Población según si puede decidir cuándo hace un descanso en 2012 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -93,2116 +93,2086 @@
     <t>7,89%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede decidir cuándo hace un descanso en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>52,56%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
     <t>5,78%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>15,08%</t>
   </si>
   <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
   </si>
   <si>
     <t>22,76%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede decidir cuándo hace un descanso en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>36,7%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
     <t>20,24%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
 </sst>
 </file>
@@ -2614,7 +2584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70520F7-8ADB-4CA8-884F-50FDAED62915}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839BD68F-83CF-422F-B827-E925633EC7B3}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3130,10 +3100,10 @@
         <v>38</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -3142,13 +3112,13 @@
         <v>46715</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3133,13 @@
         <v>13831</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3178,13 +3148,13 @@
         <v>10283</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3193,13 +3163,13 @@
         <v>24113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3184,13 @@
         <v>99360</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -3229,13 +3199,13 @@
         <v>64462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>148</v>
@@ -3244,13 +3214,13 @@
         <v>163822</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3235,13 @@
         <v>171293</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -3280,13 +3250,13 @@
         <v>120693</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M15" s="7">
         <v>269</v>
@@ -3295,18 +3265,18 @@
         <v>291986</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3318,13 +3288,13 @@
         <v>12551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3333,13 +3303,13 @@
         <v>10836</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -3348,13 +3318,13 @@
         <v>23387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3339,13 @@
         <v>14636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3384,13 +3354,13 @@
         <v>6449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -3399,13 +3369,13 @@
         <v>21085</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3390,13 @@
         <v>36235</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -3435,7 +3405,7 @@
         <v>16735</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>85</v>
@@ -3492,7 +3462,7 @@
         <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -3501,13 +3471,13 @@
         <v>44798</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3492,13 @@
         <v>47690</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -3537,13 +3507,13 @@
         <v>33709</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>80</v>
@@ -3552,13 +3522,13 @@
         <v>81400</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3543,13 @@
         <v>142265</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>77</v>
@@ -3588,13 +3558,13 @@
         <v>81375</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>221</v>
@@ -3603,18 +3573,18 @@
         <v>223640</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3626,13 +3596,13 @@
         <v>38136</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -3641,13 +3611,13 @@
         <v>31064</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -3656,13 +3626,13 @@
         <v>69200</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3647,13 @@
         <v>23093</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -3692,13 +3662,13 @@
         <v>15248</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -3707,13 +3677,13 @@
         <v>38341</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3698,13 @@
         <v>56061</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -3743,13 +3713,13 @@
         <v>35168</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M24" s="7">
         <v>85</v>
@@ -3758,13 +3728,13 @@
         <v>91229</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3749,13 @@
         <v>32162</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -3794,13 +3764,13 @@
         <v>29302</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -3809,13 +3779,13 @@
         <v>61464</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3800,13 @@
         <v>117212</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H26" s="7">
         <v>70</v>
@@ -3845,13 +3815,13 @@
         <v>77946</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M26" s="7">
         <v>184</v>
@@ -3860,13 +3830,13 @@
         <v>195159</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3851,13 @@
         <v>266664</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>173</v>
@@ -3896,13 +3866,13 @@
         <v>188729</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>424</v>
@@ -3911,18 +3881,18 @@
         <v>455393</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3934,13 +3904,13 @@
         <v>11980</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>153</v>
+        <v>39</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -3949,13 +3919,13 @@
         <v>9666</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -3964,13 +3934,13 @@
         <v>21646</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3955,13 @@
         <v>10627</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4000,13 +3970,13 @@
         <v>12679</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -4015,13 +3985,13 @@
         <v>23306</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4006,13 @@
         <v>16068</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -4051,13 +4021,13 @@
         <v>12581</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -4066,13 +4036,13 @@
         <v>28648</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4087,13 +4057,13 @@
         <v>13992</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -4102,13 +4072,13 @@
         <v>7142</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -4117,13 +4087,13 @@
         <v>21134</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4108,13 @@
         <v>29648</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -4153,13 +4123,13 @@
         <v>13566</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="M32" s="7">
         <v>40</v>
@@ -4168,13 +4138,13 @@
         <v>43213</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4159,13 @@
         <v>82314</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>54</v>
@@ -4204,13 +4174,13 @@
         <v>55634</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>129</v>
@@ -4219,18 +4189,18 @@
         <v>137947</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4242,13 +4212,13 @@
         <v>16962</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -4257,13 +4227,13 @@
         <v>6054</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M34" s="7">
         <v>21</v>
@@ -4272,13 +4242,13 @@
         <v>23015</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4263,13 @@
         <v>10080</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>207</v>
+        <v>48</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4308,13 +4278,13 @@
         <v>947</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -4323,13 +4293,13 @@
         <v>11027</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4314,13 @@
         <v>16374</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -4359,13 +4329,13 @@
         <v>8479</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -4374,13 +4344,13 @@
         <v>24852</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4365,13 @@
         <v>24282</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -4410,13 +4380,13 @@
         <v>10864</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -4425,13 +4395,13 @@
         <v>35146</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4416,13 @@
         <v>50569</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="H38" s="7">
         <v>26</v>
@@ -4461,13 +4431,13 @@
         <v>28948</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M38" s="7">
         <v>75</v>
@@ -4476,13 +4446,13 @@
         <v>79517</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4467,13 @@
         <v>118266</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H39" s="7">
         <v>52</v>
@@ -4512,13 +4482,13 @@
         <v>55292</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M39" s="7">
         <v>161</v>
@@ -4527,18 +4497,18 @@
         <v>173558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4550,13 +4520,13 @@
         <v>28708</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H40" s="7">
         <v>30</v>
@@ -4565,13 +4535,13 @@
         <v>32133</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M40" s="7">
         <v>58</v>
@@ -4580,13 +4550,13 @@
         <v>60841</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4571,13 @@
         <v>23821</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H41" s="7">
         <v>15</v>
@@ -4616,13 +4586,13 @@
         <v>15549</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M41" s="7">
         <v>37</v>
@@ -4631,13 +4601,13 @@
         <v>39370</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4622,13 @@
         <v>63247</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H42" s="7">
         <v>32</v>
@@ -4667,13 +4637,13 @@
         <v>35711</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M42" s="7">
         <v>89</v>
@@ -4682,13 +4652,13 @@
         <v>98958</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,13 +4673,13 @@
         <v>62893</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -4718,13 +4688,13 @@
         <v>31806</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="M43" s="7">
         <v>94</v>
@@ -4733,13 +4703,13 @@
         <v>94699</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,13 +4724,13 @@
         <v>90108</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H44" s="7">
         <v>60</v>
@@ -4769,13 +4739,13 @@
         <v>64060</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M44" s="7">
         <v>141</v>
@@ -4784,13 +4754,13 @@
         <v>154168</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4775,13 @@
         <v>268777</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H45" s="7">
         <v>168</v>
@@ -4820,13 +4790,13 @@
         <v>179258</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M45" s="7">
         <v>419</v>
@@ -4835,18 +4805,18 @@
         <v>448035</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4858,13 +4828,13 @@
         <v>16730</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="H46" s="7">
         <v>19</v>
@@ -4873,13 +4843,13 @@
         <v>21935</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M46" s="7">
         <v>34</v>
@@ -4888,13 +4858,13 @@
         <v>38665</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,13 +4879,13 @@
         <v>16615</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H47" s="7">
         <v>19</v>
@@ -4924,13 +4894,13 @@
         <v>21475</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>120</v>
+        <v>294</v>
       </c>
       <c r="M47" s="7">
         <v>34</v>
@@ -4939,13 +4909,13 @@
         <v>38090</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>199</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +4930,13 @@
         <v>74159</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H48" s="7">
         <v>48</v>
@@ -4975,13 +4945,13 @@
         <v>53281</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M48" s="7">
         <v>116</v>
@@ -4990,13 +4960,13 @@
         <v>127440</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>184</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +4981,13 @@
         <v>123786</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>309</v>
+        <v>92</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H49" s="7">
         <v>78</v>
@@ -5026,13 +4996,13 @@
         <v>84860</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M49" s="7">
         <v>196</v>
@@ -5041,13 +5011,13 @@
         <v>208646</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5032,13 @@
         <v>128822</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H50" s="7">
         <v>71</v>
@@ -5077,13 +5047,13 @@
         <v>78024</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M50" s="7">
         <v>190</v>
@@ -5092,13 +5062,13 @@
         <v>206846</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5083,13 @@
         <v>360113</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H51" s="7">
         <v>235</v>
@@ -5128,13 +5098,13 @@
         <v>259575</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M51" s="7">
         <v>570</v>
@@ -5143,13 +5113,13 @@
         <v>619688</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5136,13 @@
         <v>138589</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="H52" s="7">
         <v>114</v>
@@ -5181,13 +5151,13 @@
         <v>122811</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="M52" s="7">
         <v>243</v>
@@ -5196,13 +5166,13 @@
         <v>261400</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5187,13 @@
         <v>112006</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="H53" s="7">
         <v>83</v>
@@ -5232,13 +5202,13 @@
         <v>91903</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>339</v>
+        <v>17</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>25</v>
+        <v>334</v>
       </c>
       <c r="M53" s="7">
         <v>185</v>
@@ -5247,13 +5217,13 @@
         <v>203909</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5238,13 @@
         <v>293588</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H54" s="7">
         <v>164</v>
@@ -5283,13 +5253,13 @@
         <v>177225</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>348</v>
+        <v>209</v>
       </c>
       <c r="M54" s="7">
         <v>438</v>
@@ -5298,13 +5268,13 @@
         <v>470813</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,13 +5289,13 @@
         <v>302099</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>353</v>
+        <v>130</v>
       </c>
       <c r="H55" s="7">
         <v>177</v>
@@ -5334,13 +5304,13 @@
         <v>187902</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>355</v>
+        <v>152</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="M55" s="7">
         <v>469</v>
@@ -5349,13 +5319,13 @@
         <v>490001</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>173</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,13 +5340,13 @@
         <v>563409</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>359</v>
+        <v>189</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H56" s="7">
         <v>330</v>
@@ -5385,13 +5355,13 @@
         <v>360716</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>149</v>
+        <v>354</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="M56" s="7">
         <v>858</v>
@@ -5400,13 +5370,13 @@
         <v>924125</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,13 +5391,13 @@
         <v>1409691</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H57" s="7">
         <v>868</v>
@@ -5436,13 +5406,13 @@
         <v>940556</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M57" s="7">
         <v>2193</v>
@@ -5451,18 +5421,18 @@
         <v>2350247</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -5486,7 +5456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693E93E8-31C5-4A7D-BFAB-A950D966D8D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4798A0-92EE-4D76-9A31-E986CAD5D386}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5503,7 +5473,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5610,13 +5580,13 @@
         <v>51309</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -5625,13 +5595,13 @@
         <v>39655</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -5640,13 +5610,13 @@
         <v>90965</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>376</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5631,13 @@
         <v>11042</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>379</v>
+        <v>195</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5676,13 +5646,13 @@
         <v>7134</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5691,13 +5661,13 @@
         <v>18176</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5682,13 @@
         <v>9649</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5727,13 +5697,13 @@
         <v>17090</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -5742,13 +5712,13 @@
         <v>26739</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>113</v>
+        <v>383</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,13 +5733,13 @@
         <v>21160</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>268</v>
+        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -5778,13 +5748,13 @@
         <v>7863</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -5793,13 +5763,13 @@
         <v>29023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5814,13 +5784,13 @@
         <v>43006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5829,13 +5799,13 @@
         <v>29233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -5844,13 +5814,13 @@
         <v>72239</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5865,13 +5835,13 @@
         <v>136166</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -5880,13 +5850,13 @@
         <v>100975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M9" s="7">
         <v>218</v>
@@ -5895,13 +5865,13 @@
         <v>237141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5888,13 @@
         <v>22054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>298</v>
+        <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -5933,13 +5903,13 @@
         <v>19250</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>242</v>
+        <v>408</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5948,13 +5918,13 @@
         <v>41303</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5939,13 @@
         <v>23612</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>420</v>
+        <v>116</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5984,13 +5954,13 @@
         <v>14494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -5999,13 +5969,13 @@
         <v>38107</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +5990,13 @@
         <v>48071</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -6035,13 +6005,13 @@
         <v>20254</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>432</v>
+        <v>111</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -6050,13 +6020,13 @@
         <v>68325</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>206</v>
+        <v>427</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6041,13 @@
         <v>21790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -6086,13 +6056,13 @@
         <v>9739</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>441</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -6101,13 +6071,13 @@
         <v>31529</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>443</v>
+        <v>375</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6092,13 @@
         <v>54770</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -6137,13 +6107,13 @@
         <v>49944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -6152,13 +6122,13 @@
         <v>104713</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6173,13 +6143,13 @@
         <v>170297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -6188,13 +6158,13 @@
         <v>113680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M15" s="7">
         <v>266</v>
@@ -6203,18 +6173,18 @@
         <v>283977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6226,13 +6196,13 @@
         <v>20028</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>110</v>
+        <v>445</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -6241,13 +6211,13 @@
         <v>15222</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -6256,13 +6226,13 @@
         <v>35251</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6247,13 @@
         <v>28022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6292,13 +6262,13 @@
         <v>15302</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -6307,13 +6277,13 @@
         <v>43324</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>469</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6298,13 @@
         <v>37737</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>461</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>375</v>
+        <v>463</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -6343,13 +6313,13 @@
         <v>25548</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>225</v>
+        <v>464</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -6358,13 +6328,13 @@
         <v>63285</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>157</v>
+        <v>467</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6379,13 +6349,13 @@
         <v>26117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -6394,13 +6364,13 @@
         <v>17204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -6409,13 +6379,13 @@
         <v>43321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>482</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +6400,13 @@
         <v>14480</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>155</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6445,13 +6415,13 @@
         <v>11056</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -6460,13 +6430,13 @@
         <v>25536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6451,13 @@
         <v>126384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6496,13 +6466,13 @@
         <v>84333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -6511,18 +6481,18 @@
         <v>210717</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6534,13 +6504,13 @@
         <v>20223</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -6549,13 +6519,13 @@
         <v>16417</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -6564,13 +6534,13 @@
         <v>36639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>65</v>
+        <v>374</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6555,13 @@
         <v>11582</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>390</v>
+        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -6600,13 +6570,13 @@
         <v>11835</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>75</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -6615,13 +6585,13 @@
         <v>23418</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>504</v>
+        <v>405</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,13 +6606,13 @@
         <v>11238</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>506</v>
+        <v>445</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -6651,13 +6621,13 @@
         <v>9856</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>511</v>
+        <v>222</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -6666,13 +6636,13 @@
         <v>21094</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>74</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6687,13 +6657,13 @@
         <v>17093</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>515</v>
+        <v>79</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6702,13 +6672,13 @@
         <v>7646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>518</v>
+        <v>432</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>519</v>
+        <v>268</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -6717,13 +6687,13 @@
         <v>24739</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6738,13 +6708,13 @@
         <v>52045</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="H26" s="7">
         <v>34</v>
@@ -6753,13 +6723,13 @@
         <v>36105</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="M26" s="7">
         <v>83</v>
@@ -6768,13 +6738,13 @@
         <v>88149</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6789,13 +6759,13 @@
         <v>112180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -6804,13 +6774,13 @@
         <v>81859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -6819,18 +6789,18 @@
         <v>194039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6842,13 +6812,13 @@
         <v>3501</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -6857,13 +6827,13 @@
         <v>5252</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>535</v>
+        <v>378</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -6872,13 +6842,13 @@
         <v>8754</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +6863,13 @@
         <v>11362</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>542</v>
+        <v>340</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -6908,13 +6878,13 @@
         <v>7985</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -6923,13 +6893,13 @@
         <v>19346</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>547</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6944,13 +6914,13 @@
         <v>29237</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -6959,13 +6929,13 @@
         <v>18384</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="M30" s="7">
         <v>48</v>
@@ -6974,13 +6944,13 @@
         <v>47622</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6995,13 +6965,13 @@
         <v>27616</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -7010,13 +6980,13 @@
         <v>15654</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="M31" s="7">
         <v>45</v>
@@ -7025,13 +6995,13 @@
         <v>43270</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7046,13 +7016,13 @@
         <v>9213</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>567</v>
+        <v>165</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>299</v>
+        <v>555</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -7061,13 +7031,13 @@
         <v>8142</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>570</v>
+        <v>527</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="M32" s="7">
         <v>17</v>
@@ -7076,13 +7046,13 @@
         <v>17356</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>111</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7097,13 +7067,13 @@
         <v>80930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>59</v>
@@ -7112,13 +7082,13 @@
         <v>55418</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>138</v>
@@ -7127,18 +7097,18 @@
         <v>136348</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7150,13 +7120,13 @@
         <v>2872</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>382</v>
+        <v>562</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7165,13 +7135,13 @@
         <v>3785</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>577</v>
+        <v>448</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -7180,13 +7150,13 @@
         <v>6658</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,13 +7171,13 @@
         <v>21328</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>582</v>
+        <v>254</v>
       </c>
       <c r="H35" s="7">
         <v>17</v>
@@ -7216,13 +7186,13 @@
         <v>16564</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>263</v>
+        <v>571</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="M35" s="7">
         <v>37</v>
@@ -7231,13 +7201,13 @@
         <v>37892</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>71</v>
+        <v>574</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>467</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7252,13 +7222,13 @@
         <v>35668</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -7267,13 +7237,13 @@
         <v>27984</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="M36" s="7">
         <v>64</v>
@@ -7282,13 +7252,13 @@
         <v>63653</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7303,13 +7273,13 @@
         <v>28240</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -7318,13 +7288,13 @@
         <v>19291</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -7333,13 +7303,13 @@
         <v>47532</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>495</v>
+        <v>592</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7354,13 +7324,13 @@
         <v>19393</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -7369,13 +7339,13 @@
         <v>7944</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>44</v>
+        <v>598</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>262</v>
+        <v>406</v>
       </c>
       <c r="M38" s="7">
         <v>26</v>
@@ -7384,13 +7354,13 @@
         <v>27337</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>608</v>
+        <v>138</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,13 +7375,13 @@
         <v>107502</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H39" s="7">
         <v>77</v>
@@ -7420,13 +7390,13 @@
         <v>75568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M39" s="7">
         <v>180</v>
@@ -7435,18 +7405,18 @@
         <v>183071</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7458,13 +7428,13 @@
         <v>53541</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>51</v>
+        <v>194</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>424</v>
+        <v>602</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -7473,13 +7443,13 @@
         <v>42491</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>612</v>
+        <v>505</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="M40" s="7">
         <v>88</v>
@@ -7488,13 +7458,13 @@
         <v>96033</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7509,13 +7479,13 @@
         <v>80360</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>35</v>
+        <v>479</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="H41" s="7">
         <v>76</v>
@@ -7524,13 +7494,13 @@
         <v>77729</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="M41" s="7">
         <v>149</v>
@@ -7539,13 +7509,13 @@
         <v>158090</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7560,13 +7530,13 @@
         <v>93613</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>95</v>
+        <v>616</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="H42" s="7">
         <v>79</v>
@@ -7575,13 +7545,13 @@
         <v>82427</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>87</v>
+        <v>620</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="M42" s="7">
         <v>157</v>
@@ -7590,13 +7560,13 @@
         <v>176040</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7611,13 +7581,13 @@
         <v>56627</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>634</v>
+        <v>459</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -7626,13 +7596,13 @@
         <v>31638</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>34</v>
+        <v>629</v>
       </c>
       <c r="M43" s="7">
         <v>79</v>
@@ -7641,13 +7611,13 @@
         <v>88266</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,13 +7632,13 @@
         <v>75785</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="H44" s="7">
         <v>47</v>
@@ -7677,13 +7647,13 @@
         <v>50579</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="M44" s="7">
         <v>114</v>
@@ -7692,13 +7662,13 @@
         <v>126364</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>647</v>
+        <v>129</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,13 +7683,13 @@
         <v>359926</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H45" s="7">
         <v>274</v>
@@ -7728,13 +7698,13 @@
         <v>284866</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M45" s="7">
         <v>587</v>
@@ -7743,18 +7713,18 @@
         <v>644792</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7766,13 +7736,13 @@
         <v>7924</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="H46" s="7">
         <v>14</v>
@@ -7781,13 +7751,13 @@
         <v>13899</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>24</v>
+        <v>644</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="M46" s="7">
         <v>22</v>
@@ -7796,13 +7766,13 @@
         <v>21823</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>655</v>
+        <v>290</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7787,13 @@
         <v>37583</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>658</v>
+        <v>511</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="H47" s="7">
         <v>37</v>
@@ -7832,13 +7802,13 @@
         <v>37778</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>661</v>
+        <v>448</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="M47" s="7">
         <v>73</v>
@@ -7847,13 +7817,13 @@
         <v>75362</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>72</v>
+        <v>654</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>347</v>
+        <v>655</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7838,13 @@
         <v>98349</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="H48" s="7">
         <v>61</v>
@@ -7883,13 +7853,13 @@
         <v>63233</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M48" s="7">
         <v>155</v>
@@ -7898,13 +7868,13 @@
         <v>161581</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>624</v>
+        <v>662</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7919,13 +7889,13 @@
         <v>98714</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>673</v>
+        <v>509</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="H49" s="7">
         <v>79</v>
@@ -7934,13 +7904,13 @@
         <v>82535</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="M49" s="7">
         <v>174</v>
@@ -7949,13 +7919,13 @@
         <v>181249</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>376</v>
+        <v>670</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7970,13 +7940,13 @@
         <v>86367</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="H50" s="7">
         <v>40</v>
@@ -7985,13 +7955,13 @@
         <v>43026</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="M50" s="7">
         <v>122</v>
@@ -8000,13 +7970,13 @@
         <v>129393</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>306</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8021,13 +7991,13 @@
         <v>328937</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H51" s="7">
         <v>231</v>
@@ -8036,13 +8006,13 @@
         <v>240471</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M51" s="7">
         <v>546</v>
@@ -8051,13 +8021,13 @@
         <v>569408</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8074,13 +8044,13 @@
         <v>181453</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>688</v>
+        <v>239</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>201</v>
+        <v>631</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="H52" s="7">
         <v>154</v>
@@ -8089,13 +8059,13 @@
         <v>155972</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>161</v>
+        <v>683</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="M52" s="7">
         <v>319</v>
@@ -8104,13 +8074,13 @@
         <v>337425</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>693</v>
+        <v>489</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8125,13 +8095,13 @@
         <v>224891</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>697</v>
+        <v>636</v>
       </c>
       <c r="H53" s="7">
         <v>187</v>
@@ -8140,13 +8110,13 @@
         <v>188822</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="M53" s="7">
         <v>396</v>
@@ -8155,13 +8125,13 @@
         <v>413714</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>701</v>
+        <v>485</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>35</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8176,13 +8146,13 @@
         <v>363562</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>704</v>
+        <v>261</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="H54" s="7">
         <v>263</v>
@@ -8191,13 +8161,13 @@
         <v>264777</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>706</v>
+        <v>348</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>561</v>
+        <v>695</v>
       </c>
       <c r="M54" s="7">
         <v>604</v>
@@ -8206,13 +8176,13 @@
         <v>628339</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>392</v>
+        <v>696</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>181</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8227,13 +8197,13 @@
         <v>297358</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>700</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>709</v>
       </c>
       <c r="H55" s="7">
         <v>188</v>
@@ -8242,13 +8212,13 @@
         <v>191571</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="M55" s="7">
         <v>464</v>
@@ -8257,13 +8227,13 @@
         <v>488929</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>438</v>
+        <v>253</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8278,13 +8248,13 @@
         <v>355058</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>715</v>
+        <v>509</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>716</v>
+        <v>167</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="H56" s="7">
         <v>221</v>
@@ -8293,13 +8263,13 @@
         <v>236029</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>356</v>
+        <v>707</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>495</v>
+        <v>708</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>718</v>
+        <v>425</v>
       </c>
       <c r="M56" s="7">
         <v>553</v>
@@ -8308,13 +8278,13 @@
         <v>591087</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8329,13 +8299,13 @@
         <v>1422322</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H57" s="7">
         <v>1013</v>
@@ -8344,13 +8314,13 @@
         <v>1037172</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M57" s="7">
         <v>2336</v>
@@ -8359,18 +8329,18 @@
         <v>2459494</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6710-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB3567E7-4929-4B3A-8777-5F4B71CD0DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EFEE8BC-A577-4C48-B59F-634CCD01EEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8564D5A-75E0-4577-893B-00EBA351EEF2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E510429-F7D2-43D9-9864-0786DE964366}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="725">
   <si>
     <t>Población según si puede decidir cuándo hace un descanso en 2012 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -93,2086 +93,2125 @@
     <t>7,89%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>9,22%</t>
   </si>
   <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
   </si>
   <si>
     <t>7,67%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>18,36%</t>
   </si>
   <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
     <t>12,91%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede decidir cuándo hace un descanso en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>13,56%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
   </si>
   <si>
     <t>16,13%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
   </si>
   <si>
     <t>15,17%</t>
   </si>
   <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede decidir cuándo hace un descanso en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
   </si>
   <si>
     <t>16,82%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
   </si>
   <si>
     <t>22,76%</t>
   </si>
   <si>
-    <t>20,24%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
   </si>
 </sst>
 </file>
@@ -2584,7 +2623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839BD68F-83CF-422F-B827-E925633EC7B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD849AB-28B4-4DBF-AB2A-B44836B2F701}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3136,10 +3175,10 @@
         <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3148,13 +3187,13 @@
         <v>10283</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3163,13 +3202,13 @@
         <v>24113</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3223,13 @@
         <v>99360</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -3199,13 +3238,13 @@
         <v>64462</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>148</v>
@@ -3214,13 +3253,13 @@
         <v>163822</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3274,13 @@
         <v>171293</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -3250,13 +3289,13 @@
         <v>120693</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M15" s="7">
         <v>269</v>
@@ -3265,18 +3304,18 @@
         <v>291986</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3288,13 +3327,13 @@
         <v>12551</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3303,13 +3342,13 @@
         <v>10836</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -3318,13 +3357,13 @@
         <v>23387</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3378,13 @@
         <v>14636</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3354,13 +3393,13 @@
         <v>6449</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -3369,13 +3408,13 @@
         <v>21085</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3429,13 @@
         <v>36235</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -3405,7 +3444,7 @@
         <v>16735</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>85</v>
@@ -3462,7 +3501,7 @@
         <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -3471,13 +3510,13 @@
         <v>44798</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3492,13 +3531,13 @@
         <v>47690</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -3507,13 +3546,13 @@
         <v>33709</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>80</v>
@@ -3522,13 +3561,13 @@
         <v>81400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3582,13 @@
         <v>142265</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
         <v>77</v>
@@ -3558,13 +3597,13 @@
         <v>81375</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>221</v>
@@ -3573,18 +3612,18 @@
         <v>223640</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3596,13 +3635,13 @@
         <v>38136</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -3611,13 +3650,13 @@
         <v>31064</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>62</v>
@@ -3626,13 +3665,13 @@
         <v>69200</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3686,13 @@
         <v>23093</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -3662,13 +3701,13 @@
         <v>15248</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -3677,13 +3716,13 @@
         <v>38341</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3737,13 @@
         <v>56061</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>33</v>
@@ -3713,13 +3752,13 @@
         <v>35168</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>85</v>
@@ -3728,13 +3767,13 @@
         <v>91229</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3788,13 @@
         <v>32162</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -3764,13 +3803,13 @@
         <v>29302</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
         <v>58</v>
@@ -3779,13 +3818,13 @@
         <v>61464</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +3839,13 @@
         <v>117212</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>70</v>
@@ -3815,13 +3854,13 @@
         <v>77946</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>184</v>
@@ -3830,13 +3869,13 @@
         <v>195159</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +3890,13 @@
         <v>266664</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7">
         <v>173</v>
@@ -3866,13 +3905,13 @@
         <v>188729</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>424</v>
@@ -3881,18 +3920,18 @@
         <v>455393</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3904,13 +3943,13 @@
         <v>11980</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>39</v>
+        <v>154</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -3919,13 +3958,13 @@
         <v>9666</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -3934,13 +3973,13 @@
         <v>21646</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3994,13 @@
         <v>10627</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -3970,13 +4009,13 @@
         <v>12679</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -3985,13 +4024,13 @@
         <v>23306</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4045,13 @@
         <v>16068</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -4021,13 +4060,13 @@
         <v>12581</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -4036,13 +4075,13 @@
         <v>28648</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +4096,13 @@
         <v>13992</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -4072,13 +4111,13 @@
         <v>7142</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -4087,13 +4126,13 @@
         <v>21134</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4147,13 @@
         <v>29648</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -4123,13 +4162,13 @@
         <v>13566</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M32" s="7">
         <v>40</v>
@@ -4138,13 +4177,13 @@
         <v>43213</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4198,13 @@
         <v>82314</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H33" s="7">
         <v>54</v>
@@ -4174,13 +4213,13 @@
         <v>55634</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>129</v>
@@ -4189,18 +4228,18 @@
         <v>137947</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4212,13 +4251,13 @@
         <v>16962</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -4227,13 +4266,13 @@
         <v>6054</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M34" s="7">
         <v>21</v>
@@ -4242,13 +4281,13 @@
         <v>23015</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4302,13 @@
         <v>10080</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4278,13 +4317,13 @@
         <v>947</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -4293,13 +4332,13 @@
         <v>11027</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4353,13 @@
         <v>16374</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -4329,13 +4368,13 @@
         <v>8479</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -4344,13 +4383,13 @@
         <v>24852</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4404,13 @@
         <v>24282</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -4380,13 +4419,13 @@
         <v>10864</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -4395,13 +4434,13 @@
         <v>35146</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4455,13 @@
         <v>50569</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H38" s="7">
         <v>26</v>
@@ -4431,13 +4470,13 @@
         <v>28948</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M38" s="7">
         <v>75</v>
@@ -4446,13 +4485,13 @@
         <v>79517</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4506,13 @@
         <v>118266</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H39" s="7">
         <v>52</v>
@@ -4482,13 +4521,13 @@
         <v>55292</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M39" s="7">
         <v>161</v>
@@ -4497,18 +4536,18 @@
         <v>173558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4520,13 +4559,13 @@
         <v>28708</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H40" s="7">
         <v>30</v>
@@ -4535,13 +4574,13 @@
         <v>32133</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M40" s="7">
         <v>58</v>
@@ -4550,13 +4589,13 @@
         <v>60841</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4571,13 +4610,13 @@
         <v>23821</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H41" s="7">
         <v>15</v>
@@ -4586,13 +4625,13 @@
         <v>15549</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="M41" s="7">
         <v>37</v>
@@ -4601,13 +4640,13 @@
         <v>39370</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4622,13 +4661,13 @@
         <v>63247</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H42" s="7">
         <v>32</v>
@@ -4637,13 +4676,13 @@
         <v>35711</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M42" s="7">
         <v>89</v>
@@ -4652,13 +4691,13 @@
         <v>98958</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4673,13 +4712,13 @@
         <v>62893</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -4688,13 +4727,13 @@
         <v>31806</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M43" s="7">
         <v>94</v>
@@ -4703,13 +4742,13 @@
         <v>94699</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4763,13 @@
         <v>90108</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H44" s="7">
         <v>60</v>
@@ -4739,13 +4778,13 @@
         <v>64060</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M44" s="7">
         <v>141</v>
@@ -4754,13 +4793,13 @@
         <v>154168</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4814,13 @@
         <v>268777</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H45" s="7">
         <v>168</v>
@@ -4790,13 +4829,13 @@
         <v>179258</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M45" s="7">
         <v>419</v>
@@ -4805,18 +4844,18 @@
         <v>448035</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4828,13 +4867,13 @@
         <v>16730</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H46" s="7">
         <v>19</v>
@@ -4843,13 +4882,13 @@
         <v>21935</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M46" s="7">
         <v>34</v>
@@ -4858,13 +4897,13 @@
         <v>38665</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4879,13 +4918,13 @@
         <v>16615</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H47" s="7">
         <v>19</v>
@@ -4894,13 +4933,13 @@
         <v>21475</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>292</v>
+        <v>196</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M47" s="7">
         <v>34</v>
@@ -4909,13 +4948,13 @@
         <v>38090</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,13 +4969,13 @@
         <v>74159</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H48" s="7">
         <v>48</v>
@@ -4945,13 +4984,13 @@
         <v>53281</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M48" s="7">
         <v>116</v>
@@ -4960,13 +4999,13 @@
         <v>127440</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +5020,13 @@
         <v>123786</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>92</v>
+        <v>307</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H49" s="7">
         <v>78</v>
@@ -4996,13 +5035,13 @@
         <v>84860</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M49" s="7">
         <v>196</v>
@@ -5011,13 +5050,13 @@
         <v>208646</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5071,13 @@
         <v>128822</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H50" s="7">
         <v>71</v>
@@ -5047,13 +5086,13 @@
         <v>78024</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M50" s="7">
         <v>190</v>
@@ -5062,13 +5101,13 @@
         <v>206846</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5122,13 @@
         <v>360113</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H51" s="7">
         <v>235</v>
@@ -5098,13 +5137,13 @@
         <v>259575</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M51" s="7">
         <v>570</v>
@@ -5113,13 +5152,13 @@
         <v>619688</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5175,13 @@
         <v>138589</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H52" s="7">
         <v>114</v>
@@ -5151,13 +5190,13 @@
         <v>122811</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M52" s="7">
         <v>243</v>
@@ -5166,13 +5205,13 @@
         <v>261400</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5226,13 @@
         <v>112006</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H53" s="7">
         <v>83</v>
@@ -5202,13 +5241,13 @@
         <v>91903</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M53" s="7">
         <v>185</v>
@@ -5217,13 +5256,13 @@
         <v>203909</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5277,13 @@
         <v>293588</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H54" s="7">
         <v>164</v>
@@ -5253,13 +5292,13 @@
         <v>177225</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>209</v>
+        <v>344</v>
       </c>
       <c r="M54" s="7">
         <v>438</v>
@@ -5268,13 +5307,13 @@
         <v>470813</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>344</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5328,13 @@
         <v>302099</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>130</v>
+        <v>348</v>
       </c>
       <c r="H55" s="7">
         <v>177</v>
@@ -5304,13 +5343,13 @@
         <v>187902</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>152</v>
+        <v>350</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M55" s="7">
         <v>469</v>
@@ -5319,13 +5358,13 @@
         <v>490001</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>351</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5379,13 @@
         <v>563409</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>189</v>
+        <v>354</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="H56" s="7">
         <v>330</v>
@@ -5355,13 +5394,13 @@
         <v>360716</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="M56" s="7">
         <v>858</v>
@@ -5370,13 +5409,13 @@
         <v>924125</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5430,13 @@
         <v>1409691</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H57" s="7">
         <v>868</v>
@@ -5406,13 +5445,13 @@
         <v>940556</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M57" s="7">
         <v>2193</v>
@@ -5421,18 +5460,18 @@
         <v>2350247</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -5456,7 +5495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F4798A0-92EE-4D76-9A31-E986CAD5D386}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048EB61D-C2BA-4AA3-81B8-BEC7BF30F7D6}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5473,7 +5512,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5580,13 +5619,13 @@
         <v>51309</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -5595,13 +5634,13 @@
         <v>39655</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -5610,13 +5649,13 @@
         <v>90965</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>372</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5670,13 @@
         <v>11042</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>195</v>
+        <v>375</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5646,13 +5685,13 @@
         <v>7134</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5661,13 +5700,13 @@
         <v>18176</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>294</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,13 +5721,13 @@
         <v>9649</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5697,13 +5736,13 @@
         <v>17090</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -5712,13 +5751,13 @@
         <v>26739</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>383</v>
+        <v>126</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5772,13 @@
         <v>21160</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -5748,13 +5787,13 @@
         <v>7863</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -5763,13 +5802,13 @@
         <v>29023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,13 +5823,13 @@
         <v>43006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5799,13 +5838,13 @@
         <v>29233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -5814,13 +5853,13 @@
         <v>72239</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5835,13 +5874,13 @@
         <v>136166</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -5850,13 +5889,13 @@
         <v>100975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M9" s="7">
         <v>218</v>
@@ -5865,13 +5904,13 @@
         <v>237141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5927,13 @@
         <v>22054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>404</v>
+        <v>36</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -5903,13 +5942,13 @@
         <v>19250</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>409</v>
+        <v>182</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5918,13 +5957,13 @@
         <v>41303</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,13 +5978,13 @@
         <v>23612</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>116</v>
+        <v>417</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5954,13 +5993,13 @@
         <v>14494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -5969,13 +6008,13 @@
         <v>38107</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>419</v>
+        <v>334</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,13 +6029,13 @@
         <v>48071</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -6005,13 +6044,13 @@
         <v>20254</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>111</v>
+        <v>428</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -6020,13 +6059,13 @@
         <v>68325</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6080,13 @@
         <v>21790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>339</v>
+        <v>435</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -6056,13 +6095,13 @@
         <v>9739</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>438</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -6071,13 +6110,13 @@
         <v>31529</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>434</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6131,13 @@
         <v>54770</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -6107,13 +6146,13 @@
         <v>49944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -6122,13 +6161,13 @@
         <v>104713</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6182,13 @@
         <v>170297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -6158,13 +6197,13 @@
         <v>113680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M15" s="7">
         <v>266</v>
@@ -6173,18 +6212,18 @@
         <v>283977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6196,13 +6235,13 @@
         <v>20028</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -6211,13 +6250,13 @@
         <v>15222</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -6226,13 +6265,13 @@
         <v>35251</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6286,13 @@
         <v>28022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>455</v>
+        <v>316</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6262,13 +6301,13 @@
         <v>15302</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -6277,13 +6316,13 @@
         <v>43324</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>326</v>
+        <v>465</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,13 +6337,13 @@
         <v>37737</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -6313,13 +6352,13 @@
         <v>25548</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -6328,13 +6367,13 @@
         <v>63285</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>468</v>
+        <v>305</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6349,13 +6388,13 @@
         <v>26117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -6364,13 +6403,13 @@
         <v>17204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>474</v>
+        <v>198</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -6379,13 +6418,13 @@
         <v>43321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6400,13 +6439,13 @@
         <v>14480</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6415,13 +6454,13 @@
         <v>11056</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -6430,13 +6469,13 @@
         <v>25536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>483</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,13 +6490,13 @@
         <v>126384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6466,13 +6505,13 @@
         <v>84333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -6481,18 +6520,18 @@
         <v>210717</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6504,13 +6543,13 @@
         <v>20223</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>259</v>
+        <v>488</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>486</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -6519,13 +6558,13 @@
         <v>16417</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -6534,13 +6573,13 @@
         <v>36639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>374</v>
+        <v>494</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6594,13 @@
         <v>11582</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>495</v>
+        <v>267</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -6570,13 +6609,13 @@
         <v>11835</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -6585,13 +6624,13 @@
         <v>23418</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>405</v>
+        <v>502</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6645,13 @@
         <v>11238</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -6621,13 +6660,13 @@
         <v>9856</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>222</v>
+        <v>509</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -6636,13 +6675,13 @@
         <v>21094</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,13 +6696,13 @@
         <v>17093</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>79</v>
+        <v>514</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6672,13 +6711,13 @@
         <v>7646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>517</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>268</v>
+        <v>518</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -6687,13 +6726,13 @@
         <v>24739</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,13 +6747,13 @@
         <v>52045</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="H26" s="7">
         <v>34</v>
@@ -6723,13 +6762,13 @@
         <v>36105</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="M26" s="7">
         <v>83</v>
@@ -6738,13 +6777,13 @@
         <v>88149</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>520</v>
+        <v>308</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,13 +6798,13 @@
         <v>112180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -6774,13 +6813,13 @@
         <v>81859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -6789,18 +6828,18 @@
         <v>194039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6812,13 +6851,13 @@
         <v>3501</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>523</v>
+        <v>206</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -6827,13 +6866,13 @@
         <v>5252</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>378</v>
+        <v>532</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -6842,13 +6881,13 @@
         <v>8754</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +6902,13 @@
         <v>11362</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>340</v>
+        <v>538</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -6878,13 +6917,13 @@
         <v>7985</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -6893,13 +6932,13 @@
         <v>19346</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>536</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6953,13 @@
         <v>29237</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -6929,13 +6968,13 @@
         <v>18384</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M30" s="7">
         <v>48</v>
@@ -6944,13 +6983,13 @@
         <v>47622</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,13 +7004,13 @@
         <v>27616</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -6980,13 +7019,13 @@
         <v>15654</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="M31" s="7">
         <v>45</v>
@@ -6995,13 +7034,13 @@
         <v>43270</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,13 +7055,13 @@
         <v>9213</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>165</v>
+        <v>562</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -7031,13 +7070,13 @@
         <v>8142</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>527</v>
+        <v>566</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="M32" s="7">
         <v>17</v>
@@ -7046,13 +7085,13 @@
         <v>17356</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,13 +7106,13 @@
         <v>80930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H33" s="7">
         <v>59</v>
@@ -7082,13 +7121,13 @@
         <v>55418</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>138</v>
@@ -7097,18 +7136,18 @@
         <v>136348</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7120,13 +7159,13 @@
         <v>2872</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>377</v>
+        <v>572</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7135,13 +7174,13 @@
         <v>3785</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>448</v>
+        <v>575</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -7150,13 +7189,13 @@
         <v>6658</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7210,13 @@
         <v>21328</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>254</v>
+        <v>581</v>
       </c>
       <c r="H35" s="7">
         <v>17</v>
@@ -7186,13 +7225,13 @@
         <v>16564</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="M35" s="7">
         <v>37</v>
@@ -7201,13 +7240,13 @@
         <v>37892</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>575</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7261,13 @@
         <v>35668</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -7237,13 +7276,13 @@
         <v>27984</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="M36" s="7">
         <v>64</v>
@@ -7252,13 +7291,13 @@
         <v>63653</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,13 +7312,13 @@
         <v>28240</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -7288,13 +7327,13 @@
         <v>19291</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -7303,13 +7342,13 @@
         <v>47532</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>592</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,13 +7363,13 @@
         <v>19393</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>595</v>
+        <v>382</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -7339,13 +7378,13 @@
         <v>7944</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>406</v>
+        <v>608</v>
       </c>
       <c r="M38" s="7">
         <v>26</v>
@@ -7354,13 +7393,13 @@
         <v>27337</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>600</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,13 +7414,13 @@
         <v>107502</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H39" s="7">
         <v>77</v>
@@ -7390,13 +7429,13 @@
         <v>75568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M39" s="7">
         <v>180</v>
@@ -7405,18 +7444,18 @@
         <v>183071</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7428,13 +7467,13 @@
         <v>53541</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>194</v>
+        <v>530</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -7443,13 +7482,13 @@
         <v>42491</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>603</v>
+        <v>376</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>505</v>
+        <v>612</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="M40" s="7">
         <v>88</v>
@@ -7458,13 +7497,13 @@
         <v>96033</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7518,13 @@
         <v>80360</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>479</v>
+        <v>618</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="H41" s="7">
         <v>76</v>
@@ -7494,13 +7533,13 @@
         <v>77729</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="M41" s="7">
         <v>149</v>
@@ -7509,13 +7548,13 @@
         <v>158090</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>615</v>
+        <v>556</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7530,13 +7569,13 @@
         <v>93613</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="H42" s="7">
         <v>79</v>
@@ -7545,13 +7584,13 @@
         <v>82427</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="M42" s="7">
         <v>157</v>
@@ -7560,13 +7599,13 @@
         <v>176040</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7581,13 +7620,13 @@
         <v>56627</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>625</v>
+        <v>302</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>459</v>
+        <v>635</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -7596,13 +7635,13 @@
         <v>31638</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>629</v>
+        <v>22</v>
       </c>
       <c r="M43" s="7">
         <v>79</v>
@@ -7611,13 +7650,13 @@
         <v>88266</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>632</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,13 +7671,13 @@
         <v>75785</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>634</v>
+        <v>74</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="H44" s="7">
         <v>47</v>
@@ -7647,13 +7686,13 @@
         <v>50579</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="M44" s="7">
         <v>114</v>
@@ -7662,13 +7701,13 @@
         <v>126364</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7722,13 @@
         <v>359926</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H45" s="7">
         <v>274</v>
@@ -7698,13 +7737,13 @@
         <v>284866</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M45" s="7">
         <v>587</v>
@@ -7713,18 +7752,18 @@
         <v>644792</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7736,13 +7775,13 @@
         <v>7924</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="H46" s="7">
         <v>14</v>
@@ -7751,13 +7790,13 @@
         <v>13899</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>644</v>
+        <v>249</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="M46" s="7">
         <v>22</v>
@@ -7766,13 +7805,13 @@
         <v>21823</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>290</v>
+        <v>653</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7826,13 @@
         <v>37583</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>511</v>
+        <v>656</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="H47" s="7">
         <v>37</v>
@@ -7802,13 +7841,13 @@
         <v>37778</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>448</v>
+        <v>659</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="M47" s="7">
         <v>73</v>
@@ -7817,13 +7856,13 @@
         <v>75362</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7877,13 @@
         <v>98349</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="H48" s="7">
         <v>61</v>
@@ -7853,13 +7892,13 @@
         <v>63233</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>660</v>
+        <v>220</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="M48" s="7">
         <v>155</v>
@@ -7868,13 +7907,13 @@
         <v>161581</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7889,13 +7928,13 @@
         <v>98714</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>665</v>
+        <v>478</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>509</v>
+        <v>672</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="H49" s="7">
         <v>79</v>
@@ -7904,13 +7943,13 @@
         <v>82535</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="M49" s="7">
         <v>174</v>
@@ -7919,13 +7958,13 @@
         <v>181249</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7940,13 +7979,13 @@
         <v>86367</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="H50" s="7">
         <v>40</v>
@@ -7955,13 +7994,13 @@
         <v>43026</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>677</v>
+        <v>422</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="M50" s="7">
         <v>122</v>
@@ -7970,13 +8009,13 @@
         <v>129393</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>680</v>
+        <v>404</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>476</v>
+        <v>686</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7991,13 +8030,13 @@
         <v>328937</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H51" s="7">
         <v>231</v>
@@ -8006,13 +8045,13 @@
         <v>240471</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M51" s="7">
         <v>546</v>
@@ -8021,13 +8060,13 @@
         <v>569408</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,13 +8083,13 @@
         <v>181453</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>239</v>
+        <v>687</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>631</v>
+        <v>688</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="H52" s="7">
         <v>154</v>
@@ -8059,13 +8098,13 @@
         <v>155972</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>683</v>
+        <v>36</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="M52" s="7">
         <v>319</v>
@@ -8074,13 +8113,13 @@
         <v>337425</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>489</v>
+        <v>385</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8095,13 +8134,13 @@
         <v>224891</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>636</v>
+        <v>267</v>
       </c>
       <c r="H53" s="7">
         <v>187</v>
@@ -8110,13 +8149,13 @@
         <v>188822</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>691</v>
+        <v>220</v>
       </c>
       <c r="M53" s="7">
         <v>396</v>
@@ -8125,13 +8164,13 @@
         <v>413714</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>485</v>
+        <v>698</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>512</v>
+        <v>700</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,13 +8185,13 @@
         <v>363562</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>693</v>
+        <v>429</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>261</v>
+        <v>701</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="H54" s="7">
         <v>263</v>
@@ -8161,13 +8200,13 @@
         <v>264777</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>348</v>
+        <v>703</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="M54" s="7">
         <v>604</v>
@@ -8176,13 +8215,13 @@
         <v>628339</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8197,13 +8236,13 @@
         <v>297358</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>126</v>
+        <v>709</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="H55" s="7">
         <v>188</v>
@@ -8212,13 +8251,13 @@
         <v>191571</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="M55" s="7">
         <v>464</v>
@@ -8227,13 +8266,13 @@
         <v>488929</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>253</v>
+        <v>345</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8248,13 +8287,13 @@
         <v>355058</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>509</v>
+        <v>716</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>167</v>
+        <v>717</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="H56" s="7">
         <v>221</v>
@@ -8263,13 +8302,13 @@
         <v>236029</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>425</v>
+        <v>721</v>
       </c>
       <c r="M56" s="7">
         <v>553</v>
@@ -8278,13 +8317,13 @@
         <v>591087</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8299,13 +8338,13 @@
         <v>1422322</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H57" s="7">
         <v>1013</v>
@@ -8314,13 +8353,13 @@
         <v>1037172</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M57" s="7">
         <v>2336</v>
@@ -8329,18 +8368,18 @@
         <v>2459494</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6710-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6710-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EFEE8BC-A577-4C48-B59F-634CCD01EEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D3BECC-A134-4DE1-BD38-776DB4E26431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8E510429-F7D2-43D9-9864-0786DE964366}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7A23E0CC-469F-406F-967C-8759DB3AC5E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="759">
   <si>
     <t>Población según si puede decidir cuándo hace un descanso en 2012 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -72,21 +72,156 @@
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
   </si>
   <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
     <t>Muchas veces</t>
   </si>
   <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -222,9 +357,6 @@
     <t>61,81%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -366,1599 +498,1578 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede decidir cuándo hace un descanso en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>11,6%</t>
   </si>
   <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede decidir cuándo hace un descanso en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
     <t>21,06%</t>
   </si>
   <si>
@@ -2010,9 +2121,6 @@
     <t>8,19%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
     <t>15,71%</t>
   </si>
   <si>
@@ -2020,12 +2128,6 @@
   </si>
   <si>
     <t>20,44%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
   </si>
   <si>
     <t>16,13%</t>
@@ -2623,7 +2725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD849AB-28B4-4DBF-AB2A-B44836B2F701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC70E415-02C9-4C58-B157-CA146BDD935D}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2741,223 +2843,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D4" s="7">
+        <v>28663</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22105</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="N4" s="7">
+        <v>50767</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7235</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2160</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>9395</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>19968</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="7">
+        <v>11383</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="N6" s="7">
+        <v>31352</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6339</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8694</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="N7" s="7">
+        <v>15033</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="D8" s="7">
+        <v>61769</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="I8" s="7">
+        <v>41940</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="N8" s="7">
+        <v>103709</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,48 +3098,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>120</v>
+      </c>
+      <c r="D9" s="7">
+        <v>123974</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="I9" s="7">
+        <v>86282</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>197</v>
+      </c>
+      <c r="N9" s="7">
+        <v>210256</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3019,13 +3157,13 @@
         <v>13523</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -3034,13 +3172,13 @@
         <v>11122</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>25</v>
@@ -3049,19 +3187,19 @@
         <v>24645</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>12</v>
@@ -3070,13 +3208,13 @@
         <v>13134</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -3085,13 +3223,13 @@
         <v>19556</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>28</v>
@@ -3100,19 +3238,19 @@
         <v>32690</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>31</v>
@@ -3121,13 +3259,13 @@
         <v>31445</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -3136,13 +3274,13 @@
         <v>15270</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>45</v>
@@ -3151,19 +3289,19 @@
         <v>46715</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>13</v>
@@ -3172,13 +3310,13 @@
         <v>13831</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3187,13 +3325,13 @@
         <v>10283</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3202,19 +3340,19 @@
         <v>24113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>90</v>
@@ -3223,13 +3361,13 @@
         <v>99360</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -3238,13 +3376,13 @@
         <v>64462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>148</v>
@@ -3253,13 +3391,13 @@
         <v>163822</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3412,13 @@
         <v>171293</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -3289,13 +3427,13 @@
         <v>120693</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>269</v>
@@ -3304,18 +3442,18 @@
         <v>291986</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3327,13 +3465,13 @@
         <v>12551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -3342,13 +3480,13 @@
         <v>10836</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -3357,19 +3495,19 @@
         <v>23387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>14</v>
@@ -3378,13 +3516,13 @@
         <v>14636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3393,13 +3531,13 @@
         <v>6449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -3408,19 +3546,19 @@
         <v>21085</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>37</v>
@@ -3429,13 +3567,13 @@
         <v>36235</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -3444,13 +3582,13 @@
         <v>16735</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="M18" s="7">
         <v>53</v>
@@ -3459,19 +3597,19 @@
         <v>52970</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>32</v>
@@ -3480,13 +3618,13 @@
         <v>31154</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -3495,13 +3633,13 @@
         <v>13645</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -3510,19 +3648,19 @@
         <v>44798</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>48</v>
@@ -3531,13 +3669,13 @@
         <v>47690</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -3546,13 +3684,13 @@
         <v>33709</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="M20" s="7">
         <v>80</v>
@@ -3561,13 +3699,13 @@
         <v>81400</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,13 +3720,13 @@
         <v>142265</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>77</v>
@@ -3597,13 +3735,13 @@
         <v>81375</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>221</v>
@@ -3612,270 +3750,270 @@
         <v>223640</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>38136</v>
+        <v>9473</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I22" s="7">
-        <v>31064</v>
+        <v>8960</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="N22" s="7">
-        <v>69200</v>
+        <v>18433</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7">
+        <v>15858</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="7">
         <v>12</v>
       </c>
-      <c r="C23" s="7">
-        <v>21</v>
-      </c>
-      <c r="D23" s="7">
-        <v>23093</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H23" s="7">
-        <v>14</v>
-      </c>
       <c r="I23" s="7">
-        <v>15248</v>
+        <v>13089</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="M23" s="7">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N23" s="7">
-        <v>38341</v>
+        <v>28947</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D24" s="7">
-        <v>56061</v>
+        <v>36092</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="H24" s="7">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I24" s="7">
-        <v>35168</v>
+        <v>23785</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="M24" s="7">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="N24" s="7">
-        <v>91229</v>
+        <v>59877</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D25" s="7">
-        <v>32162</v>
+        <v>25823</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I25" s="7">
-        <v>29302</v>
+        <v>20608</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="N25" s="7">
-        <v>61464</v>
+        <v>46431</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="D26" s="7">
-        <v>117212</v>
+        <v>55443</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="H26" s="7">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="I26" s="7">
-        <v>77946</v>
+        <v>36007</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
-        <v>184</v>
+        <v>84</v>
       </c>
       <c r="N26" s="7">
-        <v>195159</v>
+        <v>91450</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,54 +4022,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>251</v>
+        <v>131</v>
       </c>
       <c r="D27" s="7">
-        <v>266664</v>
+        <v>142689</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>173</v>
+        <v>96</v>
       </c>
       <c r="I27" s="7">
-        <v>188729</v>
+        <v>102448</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>424</v>
+        <v>227</v>
       </c>
       <c r="N27" s="7">
-        <v>455393</v>
+        <v>245137</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3943,13 +4081,13 @@
         <v>11980</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -3958,13 +4096,13 @@
         <v>9666</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="L28" s="7" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -3973,19 +4111,19 @@
         <v>21646</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>9</v>
@@ -3994,13 +4132,13 @@
         <v>10627</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>161</v>
+        <v>205</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -4009,13 +4147,13 @@
         <v>12679</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>164</v>
+        <v>208</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>165</v>
+        <v>209</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -4024,19 +4162,19 @@
         <v>23306</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>168</v>
+        <v>212</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>169</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>16</v>
@@ -4045,13 +4183,13 @@
         <v>16068</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -4060,13 +4198,13 @@
         <v>12581</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -4075,19 +4213,19 @@
         <v>28648</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>175</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>12</v>
@@ -4096,13 +4234,13 @@
         <v>13992</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -4111,13 +4249,13 @@
         <v>7142</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -4126,19 +4264,19 @@
         <v>21134</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>27</v>
@@ -4147,13 +4285,13 @@
         <v>29648</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -4162,13 +4300,13 @@
         <v>13566</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="M32" s="7">
         <v>40</v>
@@ -4177,13 +4315,13 @@
         <v>43213</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>193</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4336,13 @@
         <v>82314</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>54</v>
@@ -4213,13 +4351,13 @@
         <v>55634</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>129</v>
@@ -4228,18 +4366,18 @@
         <v>137947</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4251,13 +4389,13 @@
         <v>16962</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -4266,13 +4404,13 @@
         <v>6054</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="M34" s="7">
         <v>21</v>
@@ -4281,19 +4419,19 @@
         <v>23015</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>202</v>
+        <v>246</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>203</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
         <v>9</v>
@@ -4302,13 +4440,13 @@
         <v>10080</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -4317,13 +4455,13 @@
         <v>947</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>205</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="M35" s="7">
         <v>10</v>
@@ -4332,19 +4470,19 @@
         <v>11027</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>13</v>
@@ -4353,13 +4491,13 @@
         <v>16374</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -4368,13 +4506,13 @@
         <v>8479</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -4383,19 +4521,19 @@
         <v>24852</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>23</v>
@@ -4404,13 +4542,13 @@
         <v>24282</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="H37" s="7">
         <v>11</v>
@@ -4419,13 +4557,13 @@
         <v>10864</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="M37" s="7">
         <v>34</v>
@@ -4434,19 +4572,19 @@
         <v>35146</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>49</v>
@@ -4455,13 +4593,13 @@
         <v>50569</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="H38" s="7">
         <v>26</v>
@@ -4470,13 +4608,13 @@
         <v>28948</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="M38" s="7">
         <v>75</v>
@@ -4485,13 +4623,13 @@
         <v>79517</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4644,13 @@
         <v>118266</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>52</v>
@@ -4521,13 +4659,13 @@
         <v>55292</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>161</v>
@@ -4536,18 +4674,18 @@
         <v>173558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4559,13 +4697,13 @@
         <v>28708</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="H40" s="7">
         <v>30</v>
@@ -4574,13 +4712,13 @@
         <v>32133</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="M40" s="7">
         <v>58</v>
@@ -4589,19 +4727,19 @@
         <v>60841</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C41" s="7">
         <v>22</v>
@@ -4610,13 +4748,13 @@
         <v>23821</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="H41" s="7">
         <v>15</v>
@@ -4625,13 +4763,13 @@
         <v>15549</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>119</v>
+        <v>295</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="M41" s="7">
         <v>37</v>
@@ -4640,19 +4778,19 @@
         <v>39370</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C42" s="7">
         <v>57</v>
@@ -4661,13 +4799,13 @@
         <v>63247</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="H42" s="7">
         <v>32</v>
@@ -4676,13 +4814,13 @@
         <v>35711</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="M42" s="7">
         <v>89</v>
@@ -4691,19 +4829,19 @@
         <v>98958</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>263</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>63</v>
@@ -4712,13 +4850,13 @@
         <v>62893</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -4727,13 +4865,13 @@
         <v>31806</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="M43" s="7">
         <v>94</v>
@@ -4742,19 +4880,19 @@
         <v>94699</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>81</v>
@@ -4763,13 +4901,13 @@
         <v>90108</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="H44" s="7">
         <v>60</v>
@@ -4778,13 +4916,13 @@
         <v>64060</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="M44" s="7">
         <v>141</v>
@@ -4793,13 +4931,13 @@
         <v>154168</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4952,13 @@
         <v>268777</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>168</v>
@@ -4829,13 +4967,13 @@
         <v>179258</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>419</v>
@@ -4844,18 +4982,18 @@
         <v>448035</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4867,13 +5005,13 @@
         <v>16730</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="H46" s="7">
         <v>19</v>
@@ -4882,13 +5020,13 @@
         <v>21935</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="M46" s="7">
         <v>34</v>
@@ -4897,19 +5035,19 @@
         <v>38665</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>288</v>
+        <v>166</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C47" s="7">
         <v>15</v>
@@ -4918,13 +5056,13 @@
         <v>16615</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="H47" s="7">
         <v>19</v>
@@ -4933,13 +5071,13 @@
         <v>21475</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="M47" s="7">
         <v>34</v>
@@ -4948,19 +5086,19 @@
         <v>38090</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C48" s="7">
         <v>68</v>
@@ -4969,13 +5107,13 @@
         <v>74159</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="H48" s="7">
         <v>48</v>
@@ -4984,13 +5122,13 @@
         <v>53281</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="M48" s="7">
         <v>116</v>
@@ -4999,19 +5137,19 @@
         <v>127440</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>305</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C49" s="7">
         <v>118</v>
@@ -5020,13 +5158,13 @@
         <v>123786</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="H49" s="7">
         <v>78</v>
@@ -5035,13 +5173,13 @@
         <v>84860</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="M49" s="7">
         <v>196</v>
@@ -5050,19 +5188,19 @@
         <v>208646</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
         <v>119</v>
@@ -5071,13 +5209,13 @@
         <v>128822</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="H50" s="7">
         <v>71</v>
@@ -5086,13 +5224,13 @@
         <v>78024</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="M50" s="7">
         <v>190</v>
@@ -5101,13 +5239,13 @@
         <v>206846</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5260,13 @@
         <v>360113</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <v>235</v>
@@ -5137,13 +5275,13 @@
         <v>259575</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>570</v>
@@ -5152,13 +5290,13 @@
         <v>619688</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5313,13 @@
         <v>138589</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="H52" s="7">
         <v>114</v>
@@ -5190,13 +5328,13 @@
         <v>122811</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="M52" s="7">
         <v>243</v>
@@ -5205,19 +5343,19 @@
         <v>261400</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C53" s="7">
         <v>102</v>
@@ -5226,13 +5364,13 @@
         <v>112006</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="H53" s="7">
         <v>83</v>
@@ -5241,13 +5379,13 @@
         <v>91903</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="M53" s="7">
         <v>185</v>
@@ -5256,19 +5394,19 @@
         <v>203909</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C54" s="7">
         <v>274</v>
@@ -5277,13 +5415,13 @@
         <v>293588</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="H54" s="7">
         <v>164</v>
@@ -5292,13 +5430,13 @@
         <v>177225</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="M54" s="7">
         <v>438</v>
@@ -5307,19 +5445,19 @@
         <v>470813</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C55" s="7">
         <v>292</v>
@@ -5328,13 +5466,13 @@
         <v>302099</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="H55" s="7">
         <v>177</v>
@@ -5343,13 +5481,13 @@
         <v>187902</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="M55" s="7">
         <v>469</v>
@@ -5358,19 +5496,19 @@
         <v>490001</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C56" s="7">
         <v>528</v>
@@ -5379,13 +5517,13 @@
         <v>563409</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="H56" s="7">
         <v>330</v>
@@ -5394,13 +5532,13 @@
         <v>360716</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="M56" s="7">
         <v>858</v>
@@ -5409,13 +5547,13 @@
         <v>924125</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,13 +5568,13 @@
         <v>1409691</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7">
         <v>868</v>
@@ -5445,13 +5583,13 @@
         <v>940556</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M57" s="7">
         <v>2193</v>
@@ -5460,18 +5598,18 @@
         <v>2350247</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -5495,7 +5633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048EB61D-C2BA-4AA3-81B8-BEC7BF30F7D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EC336D-C2BE-4EBA-95A2-731EC3094AC5}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5512,7 +5650,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5619,13 +5757,13 @@
         <v>51309</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
@@ -5634,13 +5772,13 @@
         <v>39655</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -5649,19 +5787,19 @@
         <v>90965</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>9</v>
@@ -5670,13 +5808,13 @@
         <v>11042</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -5685,13 +5823,13 @@
         <v>7134</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>378</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -5700,19 +5838,19 @@
         <v>18176</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>9</v>
@@ -5721,13 +5859,13 @@
         <v>9649</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5736,13 +5874,13 @@
         <v>17090</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="M6" s="7">
         <v>26</v>
@@ -5751,19 +5889,19 @@
         <v>26739</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>126</v>
+        <v>429</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>18</v>
@@ -5772,13 +5910,13 @@
         <v>21160</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -5787,13 +5925,13 @@
         <v>7863</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -5802,19 +5940,19 @@
         <v>29023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>399</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>40</v>
@@ -5823,13 +5961,13 @@
         <v>43006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>402</v>
+        <v>442</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5838,13 +5976,13 @@
         <v>29233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>405</v>
+        <v>445</v>
       </c>
       <c r="M8" s="7">
         <v>67</v>
@@ -5853,13 +5991,13 @@
         <v>72239</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>406</v>
+        <v>446</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>407</v>
+        <v>447</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>408</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5874,13 +6012,13 @@
         <v>136166</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -5889,13 +6027,13 @@
         <v>100975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>218</v>
@@ -5904,18 +6042,18 @@
         <v>237141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5927,13 +6065,13 @@
         <v>22054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -5942,13 +6080,13 @@
         <v>19250</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>411</v>
+        <v>451</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -5957,19 +6095,19 @@
         <v>41303</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>415</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>20</v>
@@ -5978,13 +6116,13 @@
         <v>23612</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -5993,13 +6131,13 @@
         <v>14494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>421</v>
+        <v>461</v>
       </c>
       <c r="M11" s="7">
         <v>34</v>
@@ -6008,19 +6146,19 @@
         <v>38107</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>46</v>
@@ -6029,13 +6167,13 @@
         <v>48071</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="H12" s="7">
         <v>20</v>
@@ -6044,13 +6182,13 @@
         <v>20254</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>427</v>
+        <v>467</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="M12" s="7">
         <v>66</v>
@@ -6059,19 +6197,19 @@
         <v>68325</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>432</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>21</v>
@@ -6080,13 +6218,13 @@
         <v>21790</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -6095,13 +6233,13 @@
         <v>9739</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -6110,19 +6248,19 @@
         <v>31529</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>51</v>
@@ -6131,13 +6269,13 @@
         <v>54770</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -6146,13 +6284,13 @@
         <v>49944</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="M14" s="7">
         <v>98</v>
@@ -6161,13 +6299,13 @@
         <v>104713</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,13 +6320,13 @@
         <v>170297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -6197,13 +6335,13 @@
         <v>113680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>266</v>
@@ -6212,18 +6350,18 @@
         <v>283977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6235,13 +6373,13 @@
         <v>20028</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="H16" s="7">
         <v>16</v>
@@ -6250,13 +6388,13 @@
         <v>15222</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -6265,19 +6403,19 @@
         <v>35251</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>497</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>29</v>
@@ -6286,13 +6424,13 @@
         <v>28022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
         <v>16</v>
@@ -6301,13 +6439,13 @@
         <v>15302</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -6316,19 +6454,19 @@
         <v>43324</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>505</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>40</v>
@@ -6337,13 +6475,13 @@
         <v>37737</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="H18" s="7">
         <v>27</v>
@@ -6352,13 +6490,13 @@
         <v>25548</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>471</v>
+        <v>511</v>
       </c>
       <c r="M18" s="7">
         <v>67</v>
@@ -6367,19 +6505,19 @@
         <v>63285</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>512</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>305</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>473</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>27</v>
@@ -6388,13 +6526,13 @@
         <v>26117</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>515</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -6403,13 +6541,13 @@
         <v>17204</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>167</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -6418,19 +6556,19 @@
         <v>43321</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>479</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>15</v>
@@ -6439,13 +6577,13 @@
         <v>14480</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>480</v>
+        <v>519</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>481</v>
+        <v>163</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>482</v>
+        <v>520</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -6454,13 +6592,13 @@
         <v>11056</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>483</v>
+        <v>521</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>484</v>
+        <v>522</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="M20" s="7">
         <v>26</v>
@@ -6469,13 +6607,13 @@
         <v>25536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>486</v>
+        <v>524</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>487</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6490,13 +6628,13 @@
         <v>126384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6505,13 +6643,13 @@
         <v>84333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -6520,18 +6658,18 @@
         <v>210717</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6543,13 +6681,13 @@
         <v>20223</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>488</v>
+        <v>526</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>527</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>489</v>
+        <v>528</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -6558,13 +6696,13 @@
         <v>16417</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>491</v>
+        <v>530</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="M22" s="7">
         <v>36</v>
@@ -6573,19 +6711,19 @@
         <v>36639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>493</v>
+        <v>532</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>494</v>
+        <v>533</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>495</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>11</v>
@@ -6594,13 +6732,13 @@
         <v>11582</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>496</v>
+        <v>535</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>497</v>
+        <v>536</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -6609,13 +6747,13 @@
         <v>11835</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>499</v>
+        <v>538</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -6624,19 +6762,19 @@
         <v>23418</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>503</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -6645,13 +6783,13 @@
         <v>11238</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>504</v>
+        <v>543</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>506</v>
+        <v>545</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -6660,13 +6798,13 @@
         <v>9856</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>507</v>
+        <v>546</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>509</v>
+        <v>548</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -6675,19 +6813,19 @@
         <v>21094</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>510</v>
+        <v>549</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>511</v>
+        <v>550</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>512</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>13</v>
@@ -6696,13 +6834,13 @@
         <v>17093</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>513</v>
+        <v>552</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>514</v>
+        <v>553</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>515</v>
+        <v>554</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6711,13 +6849,13 @@
         <v>7646</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>516</v>
+        <v>555</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>517</v>
+        <v>556</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>518</v>
+        <v>557</v>
       </c>
       <c r="M25" s="7">
         <v>21</v>
@@ -6726,19 +6864,19 @@
         <v>24739</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>519</v>
+        <v>558</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>520</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>49</v>
@@ -6747,13 +6885,13 @@
         <v>52045</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>521</v>
+        <v>560</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>522</v>
+        <v>561</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>523</v>
+        <v>562</v>
       </c>
       <c r="H26" s="7">
         <v>34</v>
@@ -6762,13 +6900,13 @@
         <v>36105</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>524</v>
+        <v>563</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>525</v>
+        <v>564</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>526</v>
+        <v>565</v>
       </c>
       <c r="M26" s="7">
         <v>83</v>
@@ -6777,13 +6915,13 @@
         <v>88149</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>527</v>
+        <v>566</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>528</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,13 +6936,13 @@
         <v>112180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -6813,13 +6951,13 @@
         <v>81859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -6828,18 +6966,18 @@
         <v>194039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6851,13 +6989,13 @@
         <v>3501</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>529</v>
+        <v>568</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -6866,13 +7004,13 @@
         <v>5252</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>531</v>
+        <v>570</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>532</v>
+        <v>571</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>533</v>
+        <v>572</v>
       </c>
       <c r="M28" s="7">
         <v>8</v>
@@ -6881,19 +7019,19 @@
         <v>8754</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>534</v>
+        <v>573</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>535</v>
+        <v>574</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>536</v>
+        <v>575</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>11</v>
@@ -6902,13 +7040,13 @@
         <v>11362</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>537</v>
+        <v>576</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>502</v>
+        <v>541</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
@@ -6917,13 +7055,13 @@
         <v>7985</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>539</v>
+        <v>578</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>540</v>
+        <v>579</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>541</v>
+        <v>580</v>
       </c>
       <c r="M29" s="7">
         <v>20</v>
@@ -6932,19 +7070,19 @@
         <v>19346</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>542</v>
+        <v>581</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>543</v>
+        <v>582</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>490</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>28</v>
@@ -6953,13 +7091,13 @@
         <v>29237</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>544</v>
+        <v>583</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>546</v>
+        <v>585</v>
       </c>
       <c r="H30" s="7">
         <v>20</v>
@@ -6968,13 +7106,13 @@
         <v>18384</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>547</v>
+        <v>586</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>548</v>
+        <v>587</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>549</v>
+        <v>588</v>
       </c>
       <c r="M30" s="7">
         <v>48</v>
@@ -6983,19 +7121,19 @@
         <v>47622</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>551</v>
+        <v>590</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>552</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>28</v>
@@ -7004,13 +7142,13 @@
         <v>27616</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>553</v>
+        <v>592</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>554</v>
+        <v>593</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="H31" s="7">
         <v>17</v>
@@ -7019,13 +7157,13 @@
         <v>15654</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>556</v>
+        <v>595</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>557</v>
+        <v>596</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>558</v>
+        <v>597</v>
       </c>
       <c r="M31" s="7">
         <v>45</v>
@@ -7034,19 +7172,19 @@
         <v>43270</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>559</v>
+        <v>598</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>560</v>
+        <v>599</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>561</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>9</v>
@@ -7055,13 +7193,13 @@
         <v>9213</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>562</v>
+        <v>601</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -7070,13 +7208,13 @@
         <v>8142</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>565</v>
+        <v>604</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>566</v>
+        <v>605</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>567</v>
+        <v>606</v>
       </c>
       <c r="M32" s="7">
         <v>17</v>
@@ -7085,13 +7223,13 @@
         <v>17356</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>568</v>
+        <v>607</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>569</v>
+        <v>608</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>564</v>
+        <v>603</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,13 +7244,13 @@
         <v>80930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>59</v>
@@ -7121,13 +7259,13 @@
         <v>55418</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>138</v>
@@ -7136,18 +7274,18 @@
         <v>136348</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7159,13 +7297,13 @@
         <v>2872</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>571</v>
+        <v>610</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>572</v>
+        <v>611</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7174,13 +7312,13 @@
         <v>3785</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>573</v>
+        <v>612</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>574</v>
+        <v>613</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>575</v>
+        <v>168</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -7189,19 +7327,19 @@
         <v>6658</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>576</v>
+        <v>614</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>577</v>
+        <v>615</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>578</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
         <v>20</v>
@@ -7210,13 +7348,13 @@
         <v>21328</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>581</v>
+        <v>619</v>
       </c>
       <c r="H35" s="7">
         <v>17</v>
@@ -7225,13 +7363,13 @@
         <v>16564</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>582</v>
+        <v>620</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="M35" s="7">
         <v>37</v>
@@ -7240,19 +7378,19 @@
         <v>37892</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>260</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>35</v>
@@ -7261,13 +7399,13 @@
         <v>35668</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>587</v>
+        <v>625</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="H36" s="7">
         <v>29</v>
@@ -7276,13 +7414,13 @@
         <v>27984</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>590</v>
+        <v>628</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>591</v>
+        <v>629</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>592</v>
+        <v>630</v>
       </c>
       <c r="M36" s="7">
         <v>64</v>
@@ -7291,19 +7429,19 @@
         <v>63653</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>593</v>
+        <v>631</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>594</v>
+        <v>632</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>595</v>
+        <v>633</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>26</v>
@@ -7312,13 +7450,13 @@
         <v>28240</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>596</v>
+        <v>634</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>597</v>
+        <v>635</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>598</v>
+        <v>636</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -7327,13 +7465,13 @@
         <v>19291</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>600</v>
+        <v>638</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>601</v>
+        <v>639</v>
       </c>
       <c r="M37" s="7">
         <v>46</v>
@@ -7342,19 +7480,19 @@
         <v>47532</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>602</v>
+        <v>640</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>603</v>
+        <v>641</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>19</v>
@@ -7363,13 +7501,13 @@
         <v>19393</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>605</v>
+        <v>643</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -7378,13 +7516,13 @@
         <v>7944</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>606</v>
+        <v>644</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>607</v>
+        <v>645</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>608</v>
+        <v>646</v>
       </c>
       <c r="M38" s="7">
         <v>26</v>
@@ -7393,13 +7531,13 @@
         <v>27337</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>425</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,13 +7552,13 @@
         <v>107502</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>77</v>
@@ -7429,13 +7567,13 @@
         <v>75568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>180</v>
@@ -7444,18 +7582,18 @@
         <v>183071</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7467,13 +7605,13 @@
         <v>53541</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>530</v>
+        <v>569</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>611</v>
+        <v>649</v>
       </c>
       <c r="H40" s="7">
         <v>41</v>
@@ -7482,13 +7620,13 @@
         <v>42491</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>612</v>
+        <v>650</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>613</v>
+        <v>651</v>
       </c>
       <c r="M40" s="7">
         <v>88</v>
@@ -7497,19 +7635,19 @@
         <v>96033</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>614</v>
+        <v>652</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>615</v>
+        <v>653</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>616</v>
+        <v>654</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C41" s="7">
         <v>73</v>
@@ -7518,13 +7656,13 @@
         <v>80360</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>617</v>
+        <v>655</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>618</v>
+        <v>656</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>619</v>
+        <v>657</v>
       </c>
       <c r="H41" s="7">
         <v>76</v>
@@ -7533,13 +7671,13 @@
         <v>77729</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>620</v>
+        <v>658</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>621</v>
+        <v>659</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>622</v>
+        <v>660</v>
       </c>
       <c r="M41" s="7">
         <v>149</v>
@@ -7548,19 +7686,19 @@
         <v>158090</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>623</v>
+        <v>661</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>624</v>
+        <v>662</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>556</v>
+        <v>595</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C42" s="7">
         <v>78</v>
@@ -7569,13 +7707,13 @@
         <v>93613</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>625</v>
+        <v>663</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>626</v>
+        <v>39</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>627</v>
+        <v>664</v>
       </c>
       <c r="H42" s="7">
         <v>79</v>
@@ -7584,13 +7722,13 @@
         <v>82427</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>628</v>
+        <v>665</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>629</v>
+        <v>666</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>630</v>
+        <v>667</v>
       </c>
       <c r="M42" s="7">
         <v>157</v>
@@ -7599,19 +7737,19 @@
         <v>176040</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>631</v>
+        <v>668</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>632</v>
+        <v>669</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>633</v>
+        <v>670</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>48</v>
@@ -7620,13 +7758,13 @@
         <v>56627</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>635</v>
+        <v>672</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -7635,13 +7773,13 @@
         <v>31638</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>636</v>
+        <v>162</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="M43" s="7">
         <v>79</v>
@@ -7650,19 +7788,19 @@
         <v>88266</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>638</v>
+        <v>674</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>639</v>
+        <v>675</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>133</v>
+        <v>676</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>67</v>
@@ -7671,13 +7809,13 @@
         <v>75785</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>640</v>
+        <v>677</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>641</v>
+        <v>678</v>
       </c>
       <c r="H44" s="7">
         <v>47</v>
@@ -7686,13 +7824,13 @@
         <v>50579</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>642</v>
+        <v>679</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>643</v>
+        <v>680</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>644</v>
+        <v>681</v>
       </c>
       <c r="M44" s="7">
         <v>114</v>
@@ -7701,13 +7839,13 @@
         <v>126364</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>645</v>
+        <v>682</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>133</v>
+        <v>676</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>646</v>
+        <v>683</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,13 +7860,13 @@
         <v>359926</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>274</v>
@@ -7737,13 +7875,13 @@
         <v>284866</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>587</v>
@@ -7752,18 +7890,18 @@
         <v>644792</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7775,13 +7913,13 @@
         <v>7924</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>647</v>
+        <v>684</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>648</v>
+        <v>685</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>649</v>
+        <v>686</v>
       </c>
       <c r="H46" s="7">
         <v>14</v>
@@ -7790,13 +7928,13 @@
         <v>13899</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>650</v>
+        <v>687</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>651</v>
+        <v>688</v>
       </c>
       <c r="M46" s="7">
         <v>22</v>
@@ -7805,19 +7943,19 @@
         <v>21823</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>652</v>
+        <v>689</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>653</v>
+        <v>690</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>654</v>
+        <v>691</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C47" s="7">
         <v>36</v>
@@ -7826,13 +7964,13 @@
         <v>37583</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>655</v>
+        <v>692</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>656</v>
+        <v>693</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>657</v>
+        <v>175</v>
       </c>
       <c r="H47" s="7">
         <v>37</v>
@@ -7841,13 +7979,13 @@
         <v>37778</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>658</v>
+        <v>694</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>659</v>
+        <v>695</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>660</v>
+        <v>696</v>
       </c>
       <c r="M47" s="7">
         <v>73</v>
@@ -7856,19 +7994,19 @@
         <v>75362</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>661</v>
+        <v>183</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>662</v>
+        <v>43</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>663</v>
+        <v>697</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C48" s="7">
         <v>94</v>
@@ -7877,13 +8015,13 @@
         <v>98349</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>664</v>
+        <v>698</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="H48" s="7">
         <v>61</v>
@@ -7892,13 +8030,13 @@
         <v>63233</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>668</v>
+        <v>702</v>
       </c>
       <c r="M48" s="7">
         <v>155</v>
@@ -7907,19 +8045,19 @@
         <v>161581</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>670</v>
+        <v>704</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>671</v>
+        <v>705</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C49" s="7">
         <v>95</v>
@@ -7928,13 +8066,13 @@
         <v>98714</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>478</v>
+        <v>517</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="H49" s="7">
         <v>79</v>
@@ -7943,13 +8081,13 @@
         <v>82535</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>675</v>
+        <v>709</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="M49" s="7">
         <v>174</v>
@@ -7958,19 +8096,19 @@
         <v>181249</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>678</v>
+        <v>712</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>679</v>
+        <v>713</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
         <v>82</v>
@@ -7979,13 +8117,13 @@
         <v>86367</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>680</v>
+        <v>714</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>681</v>
+        <v>715</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>682</v>
+        <v>716</v>
       </c>
       <c r="H50" s="7">
         <v>40</v>
@@ -7994,13 +8132,13 @@
         <v>43026</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>683</v>
+        <v>717</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>684</v>
+        <v>718</v>
       </c>
       <c r="M50" s="7">
         <v>122</v>
@@ -8009,13 +8147,13 @@
         <v>129393</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>685</v>
+        <v>719</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>404</v>
+        <v>444</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>686</v>
+        <v>720</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8030,13 +8168,13 @@
         <v>328937</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <v>231</v>
@@ -8045,13 +8183,13 @@
         <v>240471</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>546</v>
@@ -8060,13 +8198,13 @@
         <v>569408</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8221,13 @@
         <v>181453</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>688</v>
+        <v>722</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>689</v>
+        <v>723</v>
       </c>
       <c r="H52" s="7">
         <v>154</v>
@@ -8098,13 +8236,13 @@
         <v>155972</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>690</v>
+        <v>724</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>691</v>
+        <v>725</v>
       </c>
       <c r="M52" s="7">
         <v>319</v>
@@ -8113,19 +8251,19 @@
         <v>337425</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>692</v>
+        <v>726</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>693</v>
+        <v>727</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C53" s="7">
         <v>209</v>
@@ -8134,13 +8272,13 @@
         <v>224891</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>694</v>
+        <v>728</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>695</v>
+        <v>729</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="H53" s="7">
         <v>187</v>
@@ -8149,13 +8287,13 @@
         <v>188822</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>696</v>
+        <v>730</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>697</v>
+        <v>731</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="M53" s="7">
         <v>396</v>
@@ -8164,19 +8302,19 @@
         <v>413714</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>698</v>
+        <v>732</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>699</v>
+        <v>733</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>700</v>
+        <v>734</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C54" s="7">
         <v>341</v>
@@ -8185,13 +8323,13 @@
         <v>363562</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>701</v>
+        <v>735</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>702</v>
+        <v>736</v>
       </c>
       <c r="H54" s="7">
         <v>263</v>
@@ -8200,13 +8338,13 @@
         <v>264777</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>599</v>
+        <v>637</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>703</v>
+        <v>737</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>704</v>
+        <v>738</v>
       </c>
       <c r="M54" s="7">
         <v>604</v>
@@ -8215,19 +8353,19 @@
         <v>628339</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>705</v>
+        <v>739</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>706</v>
+        <v>740</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>707</v>
+        <v>741</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C55" s="7">
         <v>276</v>
@@ -8236,13 +8374,13 @@
         <v>297358</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>709</v>
+        <v>743</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>710</v>
+        <v>744</v>
       </c>
       <c r="H55" s="7">
         <v>188</v>
@@ -8251,13 +8389,13 @@
         <v>191571</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>712</v>
+        <v>746</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>713</v>
+        <v>747</v>
       </c>
       <c r="M55" s="7">
         <v>464</v>
@@ -8266,19 +8404,19 @@
         <v>488929</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>714</v>
+        <v>748</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>715</v>
+        <v>749</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C56" s="7">
         <v>332</v>
@@ -8287,13 +8425,13 @@
         <v>355058</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>716</v>
+        <v>750</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>718</v>
+        <v>752</v>
       </c>
       <c r="H56" s="7">
         <v>221</v>
@@ -8302,13 +8440,13 @@
         <v>236029</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>719</v>
+        <v>753</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>720</v>
+        <v>754</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="M56" s="7">
         <v>553</v>
@@ -8317,13 +8455,13 @@
         <v>591087</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>722</v>
+        <v>756</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>723</v>
+        <v>757</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>724</v>
+        <v>758</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8338,13 +8476,13 @@
         <v>1422322</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7">
         <v>1013</v>
@@ -8353,13 +8491,13 @@
         <v>1037172</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M57" s="7">
         <v>2336</v>
@@ -8368,18 +8506,18 @@
         <v>2459494</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
